--- a/data/09-21_total.xlsx
+++ b/data/09-21_total.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12051\Desktop\保险业数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data_science\Insurance_report\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBD72D8-4EC0-4B11-B336-0EF64457647B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E47EA7D-5AC0-4E0C-BD8C-CD26E563B369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="09-21全国" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
   <si>
     <t>date1</t>
   </si>
@@ -398,9 +398,6 @@
   </si>
   <si>
     <t>2018年1-2月保险业经营情况表</t>
-  </si>
-  <si>
-    <t>2018年1-2月保险业经营情况</t>
   </si>
   <si>
     <t>2018年1-3月保险业经营情况</t>
@@ -644,11 +641,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -656,7 +653,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -664,7 +661,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -673,7 +670,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -682,7 +679,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -691,7 +688,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -699,7 +696,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -707,7 +704,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -715,7 +712,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -723,7 +720,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -732,7 +729,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -741,7 +738,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -749,7 +746,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -758,7 +755,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -766,7 +763,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -775,7 +772,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -784,7 +781,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -792,14 +789,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1239,48 +1236,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1296,7 +1293,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1592,15 +1589,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R194"/>
+  <dimension ref="A1:R192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="M184" sqref="M184"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="52.90625" customWidth="1"/>
+    <col min="2" max="2" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1656,7 +1658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>39814</v>
       </c>
@@ -1712,7 +1714,7 @@
         <v>338154395.5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>39845</v>
       </c>
@@ -1768,7 +1770,7 @@
         <v>354347298</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>39873</v>
       </c>
@@ -1824,7 +1826,7 @@
         <v>354347298</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>39904</v>
       </c>
@@ -1880,7 +1882,7 @@
         <v>355455087.19999999</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>39934</v>
       </c>
@@ -1936,7 +1938,7 @@
         <v>361956016.39999998</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>39965</v>
       </c>
@@ -1992,7 +1994,7 @@
         <v>370719098.5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>39995</v>
       </c>
@@ -2048,7 +2050,7 @@
         <v>383915331.30000001</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>40026</v>
       </c>
@@ -2104,7 +2106,7 @@
         <v>368067313.80000001</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>40057</v>
       </c>
@@ -2160,7 +2162,7 @@
         <v>378799537.30000001</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>40087</v>
       </c>
@@ -2216,7 +2218,7 @@
         <v>382688517.39999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>40118</v>
       </c>
@@ -2272,7 +2274,7 @@
         <v>390629660</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>40148</v>
       </c>
@@ -2328,7 +2330,7 @@
         <v>406347543</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>40179</v>
       </c>
@@ -2384,7 +2386,7 @@
         <v>404986058</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>40210</v>
       </c>
@@ -2440,7 +2442,7 @@
         <v>414066774</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>40238</v>
       </c>
@@ -2496,7 +2498,7 @@
         <v>429294284</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>40269</v>
       </c>
@@ -2552,7 +2554,7 @@
         <v>431640809</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>40299</v>
       </c>
@@ -2608,7 +2610,7 @@
         <v>439544475</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>40330</v>
       </c>
@@ -2664,7 +2666,7 @@
         <v>452349109.5</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>40360</v>
       </c>
@@ -2720,7 +2722,7 @@
         <v>456568496.89999998</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>40391</v>
       </c>
@@ -2776,7 +2778,7 @@
         <v>475314804.80000001</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>40422</v>
       </c>
@@ -2832,7 +2834,7 @@
         <v>479953830.69999999</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>40452</v>
       </c>
@@ -2888,7 +2890,7 @@
         <v>489402302.39999998</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>40483</v>
       </c>
@@ -2944,7 +2946,7 @@
         <v>489616630.10000002</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>40513</v>
       </c>
@@ -3000,7 +3002,7 @@
         <v>504816086.5</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18">
       <c r="A26" s="1">
         <v>40544</v>
       </c>
@@ -3056,7 +3058,7 @@
         <v>508106202.39999998</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18">
       <c r="A27" s="1">
         <v>40575</v>
       </c>
@@ -3112,7 +3114,7 @@
         <v>520771600.69999999</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18">
       <c r="A28" s="1">
         <v>40603</v>
       </c>
@@ -3168,7 +3170,7 @@
         <v>540640522.60000002</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18">
       <c r="A29" s="1">
         <v>40634</v>
       </c>
@@ -3224,7 +3226,7 @@
         <v>533593116.5</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18">
       <c r="A30" s="1">
         <v>40664</v>
       </c>
@@ -3280,7 +3282,7 @@
         <v>536440951.80000001</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18">
       <c r="A31" s="1">
         <v>40695</v>
       </c>
@@ -3336,7 +3338,7 @@
         <v>574698618</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18">
       <c r="A32" s="1">
         <v>40725</v>
       </c>
@@ -3392,7 +3394,7 @@
         <v>560736224.79999995</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18">
       <c r="A33" s="1">
         <v>40756</v>
       </c>
@@ -3448,7 +3450,7 @@
         <v>564383301.10000002</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18">
       <c r="A34" s="1">
         <v>40787</v>
       </c>
@@ -3504,7 +3506,7 @@
         <v>572569887.39999998</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18">
       <c r="A35" s="1">
         <v>40817</v>
       </c>
@@ -3560,7 +3562,7 @@
         <v>582101275.70000005</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18">
       <c r="A36" s="1">
         <v>40848</v>
       </c>
@@ -3616,7 +3618,7 @@
         <v>584621643.29999995</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18">
       <c r="A37" s="1">
         <v>40878</v>
       </c>
@@ -3672,7 +3674,7 @@
         <v>601381032.39999998</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18">
       <c r="A38" s="1">
         <v>40909</v>
       </c>
@@ -3728,7 +3730,7 @@
         <v>603163752.39999998</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18">
       <c r="A39" s="1">
         <v>40940</v>
       </c>
@@ -3784,7 +3786,7 @@
         <v>619349519.5</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18">
       <c r="A40" s="1">
         <v>40969</v>
       </c>
@@ -3840,7 +3842,7 @@
         <v>636786170</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18">
       <c r="A41" s="1">
         <v>41000</v>
       </c>
@@ -3896,7 +3898,7 @@
         <v>632770279.70000005</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18">
       <c r="A42" s="1">
         <v>41030</v>
       </c>
@@ -3952,7 +3954,7 @@
         <v>643676990.10000002</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18">
       <c r="A43" s="1">
         <v>41061</v>
       </c>
@@ -4008,7 +4010,7 @@
         <v>677602308.89999998</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18">
       <c r="A44" s="1">
         <v>41091</v>
       </c>
@@ -4064,7 +4066,7 @@
         <v>660870251.5</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18">
       <c r="A45" s="1">
         <v>41122</v>
       </c>
@@ -4120,7 +4122,7 @@
         <v>664003524.79999995</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18">
       <c r="A46" s="1">
         <v>41153</v>
       </c>
@@ -4176,7 +4178,7 @@
         <v>689994600.70000005</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18">
       <c r="A47" s="1">
         <v>41183</v>
       </c>
@@ -4232,7 +4234,7 @@
         <v>683367505.60000002</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18">
       <c r="A48" s="1">
         <v>41214</v>
       </c>
@@ -4288,7 +4290,7 @@
         <v>692163550.29999995</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18">
       <c r="A49" s="1">
         <v>41244</v>
       </c>
@@ -4344,7 +4346,7 @@
         <v>735457303.89999998</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18">
       <c r="A50" s="1">
         <v>41275</v>
       </c>
@@ -4400,7 +4402,7 @@
         <v>736149331.10000002</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18">
       <c r="A51" s="1">
         <v>41306</v>
       </c>
@@ -4456,7 +4458,7 @@
         <v>740509128.70000005</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18">
       <c r="A52" s="1">
         <v>41334</v>
       </c>
@@ -4512,7 +4514,7 @@
         <v>766864640.79999995</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18">
       <c r="A53" s="1">
         <v>41365</v>
       </c>
@@ -4568,7 +4570,7 @@
         <v>756361575.5</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18">
       <c r="A54" s="1">
         <v>41395</v>
       </c>
@@ -4624,7 +4626,7 @@
         <v>767696747.5</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18">
       <c r="A55" s="1">
         <v>41426</v>
       </c>
@@ -4680,7 +4682,7 @@
         <v>788396900.79999995</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18">
       <c r="A56" s="1">
         <v>41456</v>
       </c>
@@ -4736,7 +4738,7 @@
         <v>782594272.79999995</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18">
       <c r="A57" s="1">
         <v>41487</v>
       </c>
@@ -4792,7 +4794,7 @@
         <v>790589242.60000002</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18">
       <c r="A58" s="1">
         <v>41518</v>
       </c>
@@ -4848,7 +4850,7 @@
         <v>805300247.29999995</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18">
       <c r="A59" s="1">
         <v>41548</v>
       </c>
@@ -4904,7 +4906,7 @@
         <v>798628917.10000002</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18">
       <c r="A60" s="1">
         <v>41579</v>
       </c>
@@ -4960,7 +4962,7 @@
         <v>809036615</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18">
       <c r="A61" s="1">
         <v>41609</v>
       </c>
@@ -5016,7 +5018,7 @@
         <v>828869456</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18">
       <c r="A62" s="1">
         <v>41640</v>
       </c>
@@ -5072,7 +5074,7 @@
         <v>838653761.89999998</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18">
       <c r="A63" s="1">
         <v>41671</v>
       </c>
@@ -5128,7 +5130,7 @@
         <v>850446345.89999998</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18">
       <c r="A64" s="1">
         <v>41699</v>
       </c>
@@ -5184,7 +5186,7 @@
         <v>894587389.89999998</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18">
       <c r="A65" s="1">
         <v>41730</v>
       </c>
@@ -5240,7 +5242,7 @@
         <v>890099483.10000002</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18">
       <c r="A66" s="1">
         <v>41760</v>
       </c>
@@ -5296,7 +5298,7 @@
         <v>904381896.60000002</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18">
       <c r="A67" s="1">
         <v>41791</v>
       </c>
@@ -5352,7 +5354,7 @@
         <v>937371501.29999995</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18">
       <c r="A68" s="1">
         <v>41821</v>
       </c>
@@ -5408,7 +5410,7 @@
         <v>932509487.20000005</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18">
       <c r="A69" s="1">
         <v>41852</v>
       </c>
@@ -5464,7 +5466,7 @@
         <v>948250497</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18">
       <c r="A70" s="1">
         <v>41883</v>
       </c>
@@ -5520,7 +5522,7 @@
         <v>960757874.20000005</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18">
       <c r="A71" s="1">
         <v>41913</v>
       </c>
@@ -5576,7 +5578,7 @@
         <v>964770827.39999998</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18">
       <c r="A72" s="1">
         <v>41944</v>
       </c>
@@ -5632,7 +5634,7 @@
         <v>983188981</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18">
       <c r="A73" s="1">
         <v>41974</v>
       </c>
@@ -5688,7 +5690,7 @@
         <v>1015914713</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18">
       <c r="A74" s="1">
         <v>42005</v>
       </c>
@@ -5744,9 +5746,9 @@
         <v>1038122680</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18">
       <c r="A75" s="1">
-        <v>42036</v>
+        <v>42095</v>
       </c>
       <c r="B75" t="s">
         <v>91</v>
@@ -5800,9 +5802,9 @@
         <v>1102676464</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18">
       <c r="A76" s="1">
-        <v>42064</v>
+        <v>42125</v>
       </c>
       <c r="B76" t="s">
         <v>92</v>
@@ -5856,4654 +5858,4542 @@
         <v>1131001421</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18">
       <c r="A77" s="1">
-        <v>42095</v>
+        <v>42156</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C77">
-        <v>116664063.3</v>
+        <v>137025294.19999999</v>
       </c>
       <c r="D77">
-        <v>32898424.5</v>
+        <v>40178621.700000003</v>
       </c>
       <c r="E77">
-        <v>83765638.799999997</v>
+        <v>96846672.5</v>
       </c>
       <c r="F77">
-        <v>71017545.799999997</v>
+        <v>81099643.900000006</v>
       </c>
       <c r="G77">
-        <v>10066406.5</v>
+        <v>12458783.199999999</v>
       </c>
       <c r="H77">
-        <v>2681686.5</v>
+        <v>3288245.5</v>
       </c>
       <c r="I77">
-        <v>35764845.899999999</v>
+        <v>42041157.299999997</v>
       </c>
       <c r="J77">
-        <v>15464321.699999999</v>
+        <v>18343313.300000001</v>
       </c>
       <c r="K77">
-        <v>20300524.199999999</v>
+        <v>23697844</v>
       </c>
       <c r="L77">
-        <v>16977438.399999999</v>
+        <v>19721641.300000001</v>
       </c>
       <c r="M77">
-        <v>2769630.8</v>
+        <v>3306588.1</v>
       </c>
       <c r="N77">
-        <v>553455.1</v>
+        <v>669614.6</v>
       </c>
       <c r="O77">
-        <v>11886422.4</v>
+        <v>14924693.300000001</v>
       </c>
       <c r="P77">
-        <v>254878509.59999999</v>
+        <v>267908765.30000001</v>
       </c>
       <c r="Q77">
-        <v>775669214.29999995</v>
+        <v>768936120.70000005</v>
       </c>
       <c r="R77">
-        <v>1131001421</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1142969151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
       <c r="A78" s="1">
-        <v>42125</v>
+        <v>42186</v>
       </c>
       <c r="B78" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C78">
-        <v>137025294.19999999</v>
+        <v>153837585.90000001</v>
       </c>
       <c r="D78">
-        <v>40178621.700000003</v>
+        <v>46519307.899999999</v>
       </c>
       <c r="E78">
-        <v>96846672.5</v>
+        <v>107318278</v>
       </c>
       <c r="F78">
-        <v>81099643.900000006</v>
+        <v>89384285.5</v>
       </c>
       <c r="G78">
-        <v>12458783.199999999</v>
+        <v>14140386.699999999</v>
       </c>
       <c r="H78">
-        <v>3288245.5</v>
+        <v>3793605.9</v>
       </c>
       <c r="I78">
-        <v>42041157.299999997</v>
+        <v>48871701.200000003</v>
       </c>
       <c r="J78">
-        <v>18343313.300000001</v>
+        <v>21906775.100000001</v>
       </c>
       <c r="K78">
-        <v>23697844</v>
+        <v>26964926.199999999</v>
       </c>
       <c r="L78">
-        <v>19721641.300000001</v>
+        <v>22189386.600000001</v>
       </c>
       <c r="M78">
-        <v>3306588.1</v>
+        <v>3950441.6</v>
       </c>
       <c r="N78">
-        <v>669614.6</v>
+        <v>825098</v>
       </c>
       <c r="O78">
-        <v>14924693.300000001</v>
+        <v>17469496.5</v>
       </c>
       <c r="P78">
-        <v>267908765.30000001</v>
+        <v>254281858.5</v>
       </c>
       <c r="Q78">
-        <v>768936120.70000005</v>
+        <v>763026693.29999995</v>
       </c>
       <c r="R78">
-        <v>1142969151</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1122941074</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
       <c r="A79" s="1">
-        <v>42156</v>
+        <v>42217</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C79">
-        <v>153837585.90000001</v>
+        <v>170466640</v>
       </c>
       <c r="D79">
-        <v>46519307.899999999</v>
+        <v>52418742.100000001</v>
       </c>
       <c r="E79">
-        <v>107318278</v>
+        <v>118047897.90000001</v>
       </c>
       <c r="F79">
-        <v>89384285.5</v>
+        <v>97783706.5</v>
       </c>
       <c r="G79">
-        <v>14140386.699999999</v>
+        <v>15998579.1</v>
       </c>
       <c r="H79">
-        <v>3793605.9</v>
+        <v>4265612.3</v>
       </c>
       <c r="I79">
-        <v>48871701.200000003</v>
+        <v>55572787.799999997</v>
       </c>
       <c r="J79">
-        <v>21906775.100000001</v>
+        <v>25324066.800000001</v>
       </c>
       <c r="K79">
-        <v>26964926.199999999</v>
+        <v>30248720.899999999</v>
       </c>
       <c r="L79">
-        <v>22189386.600000001</v>
+        <v>24740529.699999999</v>
       </c>
       <c r="M79">
-        <v>3950441.6</v>
+        <v>4548909.8</v>
       </c>
       <c r="N79">
-        <v>825098</v>
+        <v>959281.5</v>
       </c>
       <c r="O79">
-        <v>17469496.5</v>
+        <v>20083748.899999999</v>
       </c>
       <c r="P79">
-        <v>254281858.5</v>
+        <v>250007307.90000001</v>
       </c>
       <c r="Q79">
-        <v>763026693.29999995</v>
+        <v>769071367.5</v>
       </c>
       <c r="R79">
-        <v>1122941074</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1127236368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
       <c r="A80" s="1">
-        <v>42186</v>
+        <v>42248</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C80">
-        <v>170466640</v>
+        <v>190405199.40000001</v>
       </c>
       <c r="D80">
-        <v>52418742.100000001</v>
+        <v>59109448.299999997</v>
       </c>
       <c r="E80">
-        <v>118047897.90000001</v>
+        <v>131295751</v>
       </c>
       <c r="F80">
-        <v>97783706.5</v>
+        <v>107950842.40000001</v>
       </c>
       <c r="G80">
-        <v>15998579.1</v>
+        <v>18367115.300000001</v>
       </c>
       <c r="H80">
-        <v>4265612.3</v>
+        <v>4977793.4000000004</v>
       </c>
       <c r="I80">
-        <v>55572787.799999997</v>
+        <v>62605427.100000001</v>
       </c>
       <c r="J80">
-        <v>25324066.800000001</v>
+        <v>28921916.5</v>
       </c>
       <c r="K80">
-        <v>30248720.899999999</v>
+        <v>33683510.5</v>
       </c>
       <c r="L80">
-        <v>24740529.699999999</v>
+        <v>27427928.5</v>
       </c>
       <c r="M80">
-        <v>4548909.8</v>
+        <v>5162897</v>
       </c>
       <c r="N80">
-        <v>959281.5</v>
+        <v>1092685</v>
       </c>
       <c r="O80">
-        <v>20083748.899999999</v>
+        <v>23035805.800000001</v>
       </c>
       <c r="P80">
-        <v>250007307.90000001</v>
+        <v>254246528.59999999</v>
       </c>
       <c r="Q80">
-        <v>769071367.5</v>
+        <v>785100356.29999995</v>
       </c>
       <c r="R80">
-        <v>1127236368</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1157795982</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
       <c r="A81" s="1">
-        <v>42217</v>
+        <v>42278</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C81">
-        <v>190405199.40000001</v>
+        <v>207071243.90000001</v>
       </c>
       <c r="D81">
-        <v>59109448.299999997</v>
+        <v>65056570.299999997</v>
       </c>
       <c r="E81">
-        <v>131295751</v>
+        <v>142014673.5</v>
       </c>
       <c r="F81">
-        <v>107950842.40000001</v>
+        <v>116270676.2</v>
       </c>
       <c r="G81">
-        <v>18367115.300000001</v>
+        <v>20272493.699999999</v>
       </c>
       <c r="H81">
-        <v>4977793.4000000004</v>
+        <v>5471503.5999999996</v>
       </c>
       <c r="I81">
-        <v>62605427.100000001</v>
+        <v>69295724.200000003</v>
       </c>
       <c r="J81">
-        <v>28921916.5</v>
+        <v>32147405.199999999</v>
       </c>
       <c r="K81">
-        <v>33683510.5</v>
+        <v>37148319</v>
       </c>
       <c r="L81">
-        <v>27427928.5</v>
+        <v>30151391.5</v>
       </c>
       <c r="M81">
-        <v>5162897</v>
+        <v>5792783.7000000002</v>
       </c>
       <c r="N81">
-        <v>1092685</v>
+        <v>1204143.8</v>
       </c>
       <c r="O81">
-        <v>23035805.800000001</v>
+        <v>25724649.600000001</v>
       </c>
       <c r="P81">
-        <v>254246528.59999999</v>
+        <v>241890961.90000001</v>
       </c>
       <c r="Q81">
-        <v>785100356.29999995</v>
+        <v>818725396.60000002</v>
       </c>
       <c r="R81">
-        <v>1157795982</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1183413496</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
       <c r="A82" s="1">
-        <v>42248</v>
+        <v>42309</v>
       </c>
       <c r="B82" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C82">
-        <v>207071243.90000001</v>
+        <v>223966464.30000001</v>
       </c>
       <c r="D82">
-        <v>65056570.299999997</v>
+        <v>71486480.900000006</v>
       </c>
       <c r="E82">
-        <v>142014673.5</v>
+        <v>152479983.5</v>
       </c>
       <c r="F82">
-        <v>116270676.2</v>
+        <v>124376420</v>
       </c>
       <c r="G82">
-        <v>20272493.699999999</v>
+        <v>22196020.600000001</v>
       </c>
       <c r="H82">
-        <v>5471503.5999999996</v>
+        <v>5907542.9000000004</v>
       </c>
       <c r="I82">
-        <v>69295724.200000003</v>
+        <v>77227749.599999994</v>
       </c>
       <c r="J82">
-        <v>32147405.199999999</v>
+        <v>36246948.100000001</v>
       </c>
       <c r="K82">
-        <v>37148319</v>
+        <v>40980801.5</v>
       </c>
       <c r="L82">
-        <v>30151391.5</v>
+        <v>33074338.899999999</v>
       </c>
       <c r="M82">
-        <v>5792783.7000000002</v>
+        <v>6569470.7999999998</v>
       </c>
       <c r="N82">
-        <v>1204143.8</v>
+        <v>1336991.8999999999</v>
       </c>
       <c r="O82">
-        <v>25724649.600000001</v>
+        <v>28808452.300000001</v>
       </c>
       <c r="P82">
-        <v>241890961.90000001</v>
+        <v>252890209.80000001</v>
       </c>
       <c r="Q82">
-        <v>818725396.60000002</v>
+        <v>832487792.5</v>
       </c>
       <c r="R82">
-        <v>1183413496</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1207942480</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
       <c r="A83" s="1">
-        <v>42278</v>
+        <v>42339</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C83">
-        <v>223966464.30000001</v>
+        <v>242825194.59999999</v>
       </c>
       <c r="D83">
-        <v>71486480.900000006</v>
+        <v>79949687.400000006</v>
       </c>
       <c r="E83">
-        <v>152479983.5</v>
+        <v>162875507.30000001</v>
       </c>
       <c r="F83">
-        <v>124376420</v>
+        <v>132415207.2</v>
       </c>
       <c r="G83">
-        <v>22196020.600000001</v>
+        <v>24104715.199999999</v>
       </c>
       <c r="H83">
-        <v>5907542.9000000004</v>
+        <v>6355585</v>
       </c>
       <c r="I83">
-        <v>77227749.599999994</v>
+        <v>86741397.5</v>
       </c>
       <c r="J83">
-        <v>36246948.100000001</v>
+        <v>41941665.600000001</v>
       </c>
       <c r="K83">
-        <v>40980801.5</v>
+        <v>44799731.899999999</v>
       </c>
       <c r="L83">
-        <v>33074338.899999999</v>
+        <v>35651680.100000001</v>
       </c>
       <c r="M83">
-        <v>6569470.7999999998</v>
+        <v>7629656.9000000004</v>
       </c>
       <c r="N83">
-        <v>1336991.8999999999</v>
+        <v>1518395</v>
       </c>
       <c r="O83">
-        <v>28808452.300000001</v>
+        <v>33367215</v>
       </c>
       <c r="P83">
-        <v>252890209.80000001</v>
+        <v>243496745</v>
       </c>
       <c r="Q83">
-        <v>832487792.5</v>
+        <v>874458120.39999998</v>
       </c>
       <c r="R83">
-        <v>1207942480</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1235977649</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
       <c r="A84" s="1">
-        <v>42309</v>
+        <v>42370</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C84">
-        <v>242825194.59999999</v>
+        <v>63767336.399999999</v>
       </c>
       <c r="D84">
-        <v>79949687.400000006</v>
+        <v>9259091.0999999996</v>
       </c>
       <c r="E84">
-        <v>162875507.30000001</v>
+        <v>54508245.299999997</v>
       </c>
       <c r="F84">
-        <v>132415207.2</v>
+        <v>49544549.5</v>
       </c>
       <c r="G84">
-        <v>24104715.199999999</v>
+        <v>4269825.9000000004</v>
       </c>
       <c r="H84">
-        <v>6355585</v>
+        <v>693869.9</v>
       </c>
       <c r="I84">
-        <v>86741397.5</v>
+        <v>10126328.199999999</v>
       </c>
       <c r="J84">
-        <v>41941665.600000001</v>
+        <v>3871774.2</v>
       </c>
       <c r="K84">
-        <v>44799731.899999999</v>
+        <v>6254553.9000000004</v>
       </c>
       <c r="L84">
-        <v>35651680.100000001</v>
+        <v>5156649.9000000004</v>
       </c>
       <c r="M84">
-        <v>7629656.9000000004</v>
+        <v>942187.6</v>
       </c>
       <c r="N84">
-        <v>1518395</v>
+        <v>155716.5</v>
       </c>
       <c r="O84">
-        <v>33367215</v>
+        <v>2830623.2</v>
       </c>
       <c r="P84">
-        <v>243496745</v>
+        <v>250411989.59999999</v>
       </c>
       <c r="Q84">
-        <v>874458120.39999998</v>
+        <v>885453963.5</v>
       </c>
       <c r="R84">
-        <v>1235977649</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1262771981</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
       <c r="A85" s="1">
-        <v>42339</v>
+        <v>42401</v>
       </c>
       <c r="B85" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C85">
-        <v>63767336.399999999</v>
+        <v>90674785.5</v>
       </c>
       <c r="D85">
-        <v>9259091.0999999996</v>
+        <v>14036336.800000001</v>
       </c>
       <c r="E85">
-        <v>54508245.299999997</v>
+        <v>76638448.700000003</v>
       </c>
       <c r="F85">
-        <v>49544549.5</v>
+        <v>68007488.799999997</v>
       </c>
       <c r="G85">
-        <v>4269825.9000000004</v>
+        <v>7516105.2000000002</v>
       </c>
       <c r="H85">
-        <v>693869.9</v>
+        <v>1114854.8</v>
       </c>
       <c r="I85">
-        <v>10126328.199999999</v>
+        <v>18987634.100000001</v>
       </c>
       <c r="J85">
-        <v>3871774.2</v>
+        <v>6728582.5</v>
       </c>
       <c r="K85">
-        <v>6254553.9000000004</v>
+        <v>12259051.6</v>
       </c>
       <c r="L85">
-        <v>5156649.9000000004</v>
+        <v>10497913.199999999</v>
       </c>
       <c r="M85">
-        <v>942187.6</v>
+        <v>1493581.2</v>
       </c>
       <c r="N85">
-        <v>155716.5</v>
+        <v>267557.2</v>
       </c>
       <c r="O85">
-        <v>2830623.2</v>
+        <v>5424109.5</v>
       </c>
       <c r="P85">
-        <v>250411989.59999999</v>
+        <v>247290457.40000001</v>
       </c>
       <c r="Q85">
-        <v>885453963.5</v>
+        <v>907098625</v>
       </c>
       <c r="R85">
-        <v>1262771981</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1292620794</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
       <c r="A86" s="1">
-        <v>42370</v>
+        <v>42430</v>
       </c>
       <c r="B86" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C86">
-        <v>90674785.5</v>
+        <v>119791207.2</v>
       </c>
       <c r="D86">
-        <v>14036336.800000001</v>
+        <v>21544037.699999999</v>
       </c>
       <c r="E86">
-        <v>76638448.700000003</v>
+        <v>98247169.5</v>
       </c>
       <c r="F86">
-        <v>68007488.799999997</v>
+        <v>84592829.799999997</v>
       </c>
       <c r="G86">
-        <v>7516105.2000000002</v>
+        <v>11687399.4</v>
       </c>
       <c r="H86">
-        <v>1114854.8</v>
+        <v>1966940.3</v>
       </c>
       <c r="I86">
-        <v>18987634.100000001</v>
+        <v>28913298.800000001</v>
       </c>
       <c r="J86">
-        <v>6728582.5</v>
+        <v>10759501.9</v>
       </c>
       <c r="K86">
-        <v>12259051.6</v>
+        <v>18153796.899999999</v>
       </c>
       <c r="L86">
-        <v>10497913.199999999</v>
+        <v>15437032.800000001</v>
       </c>
       <c r="M86">
-        <v>1493581.2</v>
+        <v>2274342.7999999998</v>
       </c>
       <c r="N86">
-        <v>267557.2</v>
+        <v>442421.3</v>
       </c>
       <c r="O86">
-        <v>5424109.5</v>
+        <v>8383169.2000000002</v>
       </c>
       <c r="P86">
-        <v>247290457.40000001</v>
+        <v>265102453.59999999</v>
       </c>
       <c r="Q86">
-        <v>907098625</v>
+        <v>934324917.60000002</v>
       </c>
       <c r="R86">
-        <v>1292620794</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1385353420</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
       <c r="A87" s="1">
-        <v>42401</v>
+        <v>42461</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C87">
-        <v>119791207.2</v>
+        <v>140801206</v>
       </c>
       <c r="D87">
-        <v>21544037.699999999</v>
+        <v>28850774.199999999</v>
       </c>
       <c r="E87">
-        <v>98247169.5</v>
+        <v>111950431.8</v>
       </c>
       <c r="F87">
-        <v>84592829.799999997</v>
+        <v>93883220.400000006</v>
       </c>
       <c r="G87">
-        <v>11687399.4</v>
+        <v>15421110.699999999</v>
       </c>
       <c r="H87">
-        <v>1966940.3</v>
+        <v>2646100.7000000002</v>
       </c>
       <c r="I87">
-        <v>28913298.800000001</v>
+        <v>36774442.799999997</v>
       </c>
       <c r="J87">
-        <v>10759501.9</v>
+        <v>14334410.4</v>
       </c>
       <c r="K87">
-        <v>18153796.899999999</v>
+        <v>22440032.399999999</v>
       </c>
       <c r="L87">
-        <v>15437032.800000001</v>
+        <v>18908726.399999999</v>
       </c>
       <c r="M87">
-        <v>2274342.7999999998</v>
+        <v>2960829.3</v>
       </c>
       <c r="N87">
-        <v>442421.3</v>
+        <v>570476.69999999995</v>
       </c>
       <c r="O87">
-        <v>8383169.2000000002</v>
+        <v>11514247.300000001</v>
       </c>
       <c r="P87">
-        <v>265102453.59999999</v>
+        <v>222636607.30000001</v>
       </c>
       <c r="Q87">
-        <v>934324917.60000002</v>
+        <v>974508335</v>
       </c>
       <c r="R87">
-        <v>1385353420</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1380010971</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
       <c r="A88" s="1">
-        <v>42430</v>
+        <v>42491</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C88">
-        <v>140801206</v>
+        <v>161201764.19999999</v>
       </c>
       <c r="D88">
-        <v>28850774.199999999</v>
+        <v>35435078.299999997</v>
       </c>
       <c r="E88">
-        <v>111950431.8</v>
+        <v>125766685.90000001</v>
       </c>
       <c r="F88">
-        <v>93883220.400000006</v>
+        <v>103408292.7</v>
       </c>
       <c r="G88">
-        <v>15421110.699999999</v>
+        <v>19139616.100000001</v>
       </c>
       <c r="H88">
-        <v>2646100.7000000002</v>
+        <v>3218777.2</v>
       </c>
       <c r="I88">
-        <v>36774442.799999997</v>
+        <v>44524029.600000001</v>
       </c>
       <c r="J88">
-        <v>14334410.4</v>
+        <v>17984871.399999999</v>
       </c>
       <c r="K88">
-        <v>22440032.399999999</v>
+        <v>26539158.300000001</v>
       </c>
       <c r="L88">
-        <v>18908726.399999999</v>
+        <v>22173948.199999999</v>
       </c>
       <c r="M88">
-        <v>2960829.3</v>
+        <v>3654886.3</v>
       </c>
       <c r="N88">
-        <v>570476.69999999995</v>
+        <v>710323.9</v>
       </c>
       <c r="O88">
-        <v>11514247.300000001</v>
+        <v>14338616.300000001</v>
       </c>
       <c r="P88">
-        <v>222636607.30000001</v>
+        <v>221683862.09999999</v>
       </c>
       <c r="Q88">
-        <v>974508335</v>
+        <v>989409166.29999995</v>
       </c>
       <c r="R88">
-        <v>1380010971</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1397690028</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
       <c r="A89" s="1">
-        <v>42461</v>
+        <v>42522</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C89">
-        <v>161201764.19999999</v>
+        <v>188128166.5</v>
       </c>
       <c r="D89">
-        <v>35435078.299999997</v>
+        <v>43019660</v>
       </c>
       <c r="E89">
-        <v>125766685.90000001</v>
+        <v>145108506.5</v>
       </c>
       <c r="F89">
-        <v>103408292.7</v>
+        <v>117610249.3</v>
       </c>
       <c r="G89">
-        <v>19139616.100000001</v>
+        <v>23593324.600000001</v>
       </c>
       <c r="H89">
-        <v>3218777.2</v>
+        <v>3904932.6</v>
       </c>
       <c r="I89">
-        <v>44524029.600000001</v>
+        <v>52623696</v>
       </c>
       <c r="J89">
-        <v>17984871.399999999</v>
+        <v>21655509.5</v>
       </c>
       <c r="K89">
-        <v>26539158.300000001</v>
+        <v>30968186.399999999</v>
       </c>
       <c r="L89">
-        <v>22173948.199999999</v>
+        <v>25742741.399999999</v>
       </c>
       <c r="M89">
-        <v>3654886.3</v>
+        <v>4375590.7</v>
       </c>
       <c r="N89">
-        <v>710323.9</v>
+        <v>849854.4</v>
       </c>
       <c r="O89">
-        <v>14338616.300000001</v>
+        <v>17687901.800000001</v>
       </c>
       <c r="P89">
-        <v>221683862.09999999</v>
+        <v>236052312.19999999</v>
       </c>
       <c r="Q89">
-        <v>989409166.29999995</v>
+        <v>1020240680</v>
       </c>
       <c r="R89">
-        <v>1397690028</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1426607549</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
       <c r="A90" s="1">
-        <v>42491</v>
+        <v>42552</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C90">
-        <v>188128166.5</v>
+        <v>208304687.59999999</v>
       </c>
       <c r="D90">
-        <v>43019660</v>
+        <v>49791663.899999999</v>
       </c>
       <c r="E90">
-        <v>145108506.5</v>
+        <v>158513023.69999999</v>
       </c>
       <c r="F90">
-        <v>117610249.3</v>
+        <v>126613775.3</v>
       </c>
       <c r="G90">
-        <v>23593324.600000001</v>
+        <v>27438919.100000001</v>
       </c>
       <c r="H90">
-        <v>3904932.6</v>
+        <v>4460329.3</v>
       </c>
       <c r="I90">
-        <v>52623696</v>
+        <v>60566724.100000001</v>
       </c>
       <c r="J90">
-        <v>21655509.5</v>
+        <v>25379241.800000001</v>
       </c>
       <c r="K90">
-        <v>30968186.399999999</v>
+        <v>35187482.299999997</v>
       </c>
       <c r="L90">
-        <v>25742741.399999999</v>
+        <v>29035024.300000001</v>
       </c>
       <c r="M90">
-        <v>4375590.7</v>
+        <v>5159270.0999999996</v>
       </c>
       <c r="N90">
-        <v>849854.4</v>
+        <v>993187.9</v>
       </c>
       <c r="O90">
-        <v>17687901.800000001</v>
+        <v>20507797.800000001</v>
       </c>
       <c r="P90">
-        <v>236052312.19999999</v>
+        <v>217747966.59999999</v>
       </c>
       <c r="Q90">
-        <v>1020240680</v>
+        <v>1038634824</v>
       </c>
       <c r="R90">
-        <v>1426607549</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1432593730</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
       <c r="A91" s="1">
-        <v>42522</v>
+        <v>42583</v>
       </c>
       <c r="B91" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C91">
-        <v>208304687.59999999</v>
+        <v>229589373.19999999</v>
       </c>
       <c r="D91">
-        <v>49791663.899999999</v>
+        <v>56350848.899999999</v>
       </c>
       <c r="E91">
-        <v>158513023.69999999</v>
+        <v>173238524.30000001</v>
       </c>
       <c r="F91">
-        <v>126613775.3</v>
+        <v>137214564.40000001</v>
       </c>
       <c r="G91">
-        <v>27438919.100000001</v>
+        <v>30982305.100000001</v>
       </c>
       <c r="H91">
-        <v>4460329.3</v>
+        <v>5041654.8</v>
       </c>
       <c r="I91">
-        <v>60566724.100000001</v>
+        <v>69011431.200000003</v>
       </c>
       <c r="J91">
-        <v>25379241.800000001</v>
+        <v>29371278.699999999</v>
       </c>
       <c r="K91">
-        <v>35187482.299999997</v>
+        <v>39640152.5</v>
       </c>
       <c r="L91">
-        <v>29035024.300000001</v>
+        <v>32427248.800000001</v>
       </c>
       <c r="M91">
-        <v>5159270.0999999996</v>
+        <v>6053100.7000000002</v>
       </c>
       <c r="N91">
-        <v>993187.9</v>
+        <v>1159802.8999999999</v>
       </c>
       <c r="O91">
-        <v>20507797.800000001</v>
+        <v>23515521.899999999</v>
       </c>
       <c r="P91">
-        <v>217747966.59999999</v>
+        <v>225269541</v>
       </c>
       <c r="Q91">
-        <v>1038634824</v>
+        <v>1048609762</v>
       </c>
       <c r="R91">
-        <v>1432593730</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1448263922</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
       <c r="A92" s="1">
-        <v>42552</v>
+        <v>42614</v>
       </c>
       <c r="B92" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C92">
-        <v>229589373.19999999</v>
+        <v>251682615</v>
       </c>
       <c r="D92">
-        <v>56350848.899999999</v>
+        <v>63705827.299999997</v>
       </c>
       <c r="E92">
-        <v>173238524.30000001</v>
+        <v>187976787.69999999</v>
       </c>
       <c r="F92">
-        <v>137214564.40000001</v>
+        <v>147838733.5</v>
       </c>
       <c r="G92">
-        <v>30982305.100000001</v>
+        <v>34304068.899999999</v>
       </c>
       <c r="H92">
-        <v>5041654.8</v>
+        <v>5833985.2999999998</v>
       </c>
       <c r="I92">
-        <v>69011431.200000003</v>
+        <v>77506999</v>
       </c>
       <c r="J92">
-        <v>29371278.699999999</v>
+        <v>33215870.300000001</v>
       </c>
       <c r="K92">
-        <v>39640152.5</v>
+        <v>44291128.600000001</v>
       </c>
       <c r="L92">
-        <v>32427248.800000001</v>
+        <v>36105332.600000001</v>
       </c>
       <c r="M92">
-        <v>6053100.7000000002</v>
+        <v>6871908.2999999998</v>
       </c>
       <c r="N92">
-        <v>1159802.8999999999</v>
+        <v>1313887.8</v>
       </c>
       <c r="O92">
-        <v>23515521.899999999</v>
+        <v>26859725.699999999</v>
       </c>
       <c r="P92">
-        <v>225269541</v>
+        <v>229613643.5</v>
       </c>
       <c r="Q92">
-        <v>1048609762</v>
+        <v>1053248220</v>
       </c>
       <c r="R92">
-        <v>1448263922</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1463190173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
       <c r="A93" s="1">
-        <v>42583</v>
+        <v>42644</v>
       </c>
       <c r="B93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C93">
-        <v>251682615</v>
+        <v>270103752.10000002</v>
       </c>
       <c r="D93">
-        <v>63705827.299999997</v>
+        <v>70183820.599999994</v>
       </c>
       <c r="E93">
-        <v>187976787.69999999</v>
+        <v>199919931.5</v>
       </c>
       <c r="F93">
-        <v>147838733.5</v>
+        <v>157039706.90000001</v>
       </c>
       <c r="G93">
-        <v>34304068.899999999</v>
+        <v>36477410.299999997</v>
       </c>
       <c r="H93">
-        <v>5833985.2999999998</v>
+        <v>6402814.2999999998</v>
       </c>
       <c r="I93">
-        <v>77506999</v>
+        <v>85261669.900000006</v>
       </c>
       <c r="J93">
-        <v>33215870.300000001</v>
+        <v>36701245.200000003</v>
       </c>
       <c r="K93">
-        <v>44291128.600000001</v>
+        <v>48560424.799999997</v>
       </c>
       <c r="L93">
-        <v>36105332.600000001</v>
+        <v>39465560.600000001</v>
       </c>
       <c r="M93">
-        <v>6871908.2999999998</v>
+        <v>7634167.2000000002</v>
       </c>
       <c r="N93">
-        <v>1313887.8</v>
+        <v>1460696.9</v>
       </c>
       <c r="O93">
-        <v>26859725.699999999</v>
+        <v>29896253.800000001</v>
       </c>
       <c r="P93">
-        <v>229613643.5</v>
+        <v>232342208.5</v>
       </c>
       <c r="Q93">
-        <v>1053248220</v>
+        <v>1058768950</v>
       </c>
       <c r="R93">
-        <v>1463190173</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1480266401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
       <c r="A94" s="1">
-        <v>42614</v>
+        <v>42675</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C94">
-        <v>270103752.10000002</v>
+        <v>288648711.10000002</v>
       </c>
       <c r="D94">
-        <v>70183820.599999994</v>
+        <v>77730543.799999997</v>
       </c>
       <c r="E94">
-        <v>199919931.5</v>
+        <v>210918167.30000001</v>
       </c>
       <c r="F94">
-        <v>157039706.90000001</v>
+        <v>165566817.09999999</v>
       </c>
       <c r="G94">
-        <v>36477410.299999997</v>
+        <v>38417960</v>
       </c>
       <c r="H94">
-        <v>6402814.2999999998</v>
+        <v>6933390.2000000002</v>
       </c>
       <c r="I94">
-        <v>85261669.900000006</v>
+        <v>94500194.200000003</v>
       </c>
       <c r="J94">
-        <v>36701245.200000003</v>
+        <v>41311226</v>
       </c>
       <c r="K94">
-        <v>48560424.799999997</v>
+        <v>53188968.200000003</v>
       </c>
       <c r="L94">
-        <v>39465560.600000001</v>
+        <v>42875209.5</v>
       </c>
       <c r="M94">
-        <v>7634167.2000000002</v>
+        <v>8707195.0999999996</v>
       </c>
       <c r="N94">
-        <v>1460696.9</v>
+        <v>1606563.6</v>
       </c>
       <c r="O94">
-        <v>29896253.800000001</v>
+        <v>33562674.799999997</v>
       </c>
       <c r="P94">
-        <v>232342208.5</v>
+        <v>235223944.09999999</v>
       </c>
       <c r="Q94">
-        <v>1058768950</v>
+        <v>1076667610</v>
       </c>
       <c r="R94">
-        <v>1480266401</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1496086029</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
       <c r="A95" s="1">
-        <v>42644</v>
+        <v>42705</v>
       </c>
       <c r="B95" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C95">
-        <v>288648711.10000002</v>
+        <v>309591008.89999998</v>
       </c>
       <c r="D95">
-        <v>77730543.799999997</v>
+        <v>87244981.400000006</v>
       </c>
       <c r="E95">
-        <v>210918167.30000001</v>
+        <v>222346027.5</v>
       </c>
       <c r="F95">
-        <v>165566817.09999999</v>
+        <v>174422166.80000001</v>
       </c>
       <c r="G95">
-        <v>38417960</v>
+        <v>40424967.899999999</v>
       </c>
       <c r="H95">
-        <v>6933390.2000000002</v>
+        <v>7498892.9000000004</v>
       </c>
       <c r="I95">
-        <v>94500194.200000003</v>
+        <v>105128899.8</v>
       </c>
       <c r="J95">
-        <v>41311226</v>
+        <v>47261838.899999999</v>
       </c>
       <c r="K95">
-        <v>53188968.200000003</v>
+        <v>57867061</v>
       </c>
       <c r="L95">
-        <v>42875209.5</v>
+        <v>46029461.799999997</v>
       </c>
       <c r="M95">
-        <v>8707195.0999999996</v>
+        <v>10007522.199999999</v>
       </c>
       <c r="N95">
-        <v>1606563.6</v>
+        <v>1830077</v>
       </c>
       <c r="O95">
-        <v>33562674.799999997</v>
+        <v>38955248.700000003</v>
       </c>
       <c r="P95">
-        <v>235223944.09999999</v>
+        <v>248442107.30000001</v>
       </c>
       <c r="Q95">
-        <v>1076667610</v>
+        <v>1090664619</v>
       </c>
       <c r="R95">
-        <v>1496086029</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1511691650</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
       <c r="A96" s="1">
-        <v>42675</v>
+        <v>42736</v>
       </c>
       <c r="B96" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C96">
-        <v>309591008.89999998</v>
+        <v>85534033.900000006</v>
       </c>
       <c r="D96">
-        <v>87244981.400000006</v>
+        <v>9738127</v>
       </c>
       <c r="E96">
-        <v>222346027.5</v>
+        <v>75795906.900000006</v>
       </c>
       <c r="F96">
-        <v>174422166.80000001</v>
+        <v>68615893.700000003</v>
       </c>
       <c r="G96">
-        <v>40424967.899999999</v>
+        <v>6411138.2000000002</v>
       </c>
       <c r="H96">
-        <v>7498892.9000000004</v>
+        <v>768875</v>
       </c>
       <c r="I96">
-        <v>105128899.8</v>
+        <v>12772913.6</v>
       </c>
       <c r="J96">
-        <v>47261838.899999999</v>
+        <v>4196850.2</v>
       </c>
       <c r="K96">
-        <v>57867061</v>
+        <v>8576063.4000000004</v>
       </c>
       <c r="L96">
-        <v>46029461.799999997</v>
+        <v>7295260.7000000002</v>
       </c>
       <c r="M96">
-        <v>10007522.199999999</v>
+        <v>1094865.7</v>
       </c>
       <c r="N96">
-        <v>1830077</v>
+        <v>185937</v>
       </c>
       <c r="O96">
-        <v>38955248.700000003</v>
+        <v>3398864.7</v>
       </c>
       <c r="P96">
-        <v>248442107.30000001</v>
+        <v>273117409.69999999</v>
       </c>
       <c r="Q96">
-        <v>1090664619</v>
+        <v>1114564152</v>
       </c>
       <c r="R96">
-        <v>1511691650</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1576535542</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
       <c r="A97" s="1">
-        <v>42705</v>
+        <v>42767</v>
       </c>
       <c r="B97" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C97">
-        <v>85534033.900000006</v>
+        <v>119028138.8</v>
       </c>
       <c r="D97">
-        <v>9738127</v>
+        <v>15352674</v>
       </c>
       <c r="E97">
-        <v>75795906.900000006</v>
+        <v>103675464.8</v>
       </c>
       <c r="F97">
-        <v>68615893.700000003</v>
+        <v>91679619.099999994</v>
       </c>
       <c r="G97">
-        <v>6411138.2000000002</v>
+        <v>10695106.1</v>
       </c>
       <c r="H97">
-        <v>768875</v>
+        <v>1300739.7</v>
       </c>
       <c r="I97">
-        <v>12772913.6</v>
+        <v>22416088.800000001</v>
       </c>
       <c r="J97">
-        <v>4196850.2</v>
+        <v>7069179.2000000002</v>
       </c>
       <c r="K97">
-        <v>8576063.4000000004</v>
+        <v>15346909.6</v>
       </c>
       <c r="L97">
-        <v>7295260.7000000002</v>
+        <v>13172784.9</v>
       </c>
       <c r="M97">
-        <v>1094865.7</v>
+        <v>1869058.7</v>
       </c>
       <c r="N97">
-        <v>185937</v>
+        <v>305066</v>
       </c>
       <c r="O97">
-        <v>3398864.7</v>
+        <v>6235527.4000000004</v>
       </c>
       <c r="P97">
-        <v>273117409.69999999</v>
+        <v>258096474.80000001</v>
       </c>
       <c r="Q97">
-        <v>1114564152</v>
+        <v>1127119990</v>
       </c>
       <c r="R97">
-        <v>1576535542</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1595780387</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
       <c r="A98" s="1">
-        <v>42736</v>
+        <v>42795</v>
       </c>
       <c r="B98" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C98">
-        <v>119028138.8</v>
+        <v>158660237</v>
       </c>
       <c r="D98">
-        <v>15352674</v>
+        <v>24021264.899999999</v>
       </c>
       <c r="E98">
-        <v>103675464.8</v>
+        <v>134638972.09999999</v>
       </c>
       <c r="F98">
-        <v>91679619.099999994</v>
+        <v>116314535.3</v>
       </c>
       <c r="G98">
-        <v>10695106.1</v>
+        <v>15998201.1</v>
       </c>
       <c r="H98">
-        <v>1300739.7</v>
+        <v>2326235.7000000002</v>
       </c>
       <c r="I98">
-        <v>22416088.800000001</v>
+        <v>33050132.399999999</v>
       </c>
       <c r="J98">
-        <v>7069179.2000000002</v>
+        <v>11353025.300000001</v>
       </c>
       <c r="K98">
-        <v>15346909.6</v>
+        <v>21697107.100000001</v>
       </c>
       <c r="L98">
-        <v>13172784.9</v>
+        <v>18365320.399999999</v>
       </c>
       <c r="M98">
-        <v>1869058.7</v>
+        <v>2839981</v>
       </c>
       <c r="N98">
-        <v>305066</v>
+        <v>491805.6</v>
       </c>
       <c r="O98">
-        <v>6235527.4000000004</v>
+        <v>9859717.8000000007</v>
       </c>
       <c r="P98">
-        <v>258096474.80000001</v>
+        <v>236049912</v>
       </c>
       <c r="Q98">
-        <v>1127119990</v>
+        <v>1171309731</v>
       </c>
       <c r="R98">
-        <v>1595780387</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1618151195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
       <c r="A99" s="1">
-        <v>42767</v>
+        <v>42826</v>
       </c>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C99">
-        <v>158660237</v>
+        <v>179963303.90000001</v>
       </c>
       <c r="D99">
-        <v>24021264.899999999</v>
+        <v>31885198.100000001</v>
       </c>
       <c r="E99">
-        <v>134638972.09999999</v>
+        <v>148078105.80000001</v>
       </c>
       <c r="F99">
-        <v>116314535.3</v>
+        <v>125876211.8</v>
       </c>
       <c r="G99">
-        <v>15998201.1</v>
+        <v>19140230.100000001</v>
       </c>
       <c r="H99">
-        <v>2326235.7000000002</v>
+        <v>3061663.9</v>
       </c>
       <c r="I99">
-        <v>33050132.399999999</v>
+        <v>40956361.899999999</v>
       </c>
       <c r="J99">
-        <v>11353025.300000001</v>
+        <v>14912602.1</v>
       </c>
       <c r="K99">
-        <v>21697107.100000001</v>
+        <v>26043759.800000001</v>
       </c>
       <c r="L99">
-        <v>18365320.399999999</v>
+        <v>21772132</v>
       </c>
       <c r="M99">
-        <v>2839981</v>
+        <v>3631047</v>
       </c>
       <c r="N99">
-        <v>491805.6</v>
+        <v>640580.80000000005</v>
       </c>
       <c r="O99">
-        <v>9859717.8000000007</v>
+        <v>13131931.699999999</v>
       </c>
       <c r="P99">
-        <v>236049912</v>
+        <v>212020106.19999999</v>
       </c>
       <c r="Q99">
-        <v>1171309731</v>
+        <v>1203181641</v>
       </c>
       <c r="R99">
-        <v>1618151195</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1598943610</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
       <c r="A100" s="1">
-        <v>42795</v>
+        <v>42856</v>
       </c>
       <c r="B100" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C100">
-        <v>179963303.90000001</v>
+        <v>202918007.59999999</v>
       </c>
       <c r="D100">
-        <v>31885198.100000001</v>
+        <v>39564149.100000001</v>
       </c>
       <c r="E100">
-        <v>148078105.80000001</v>
+        <v>163353858.40000001</v>
       </c>
       <c r="F100">
-        <v>125876211.8</v>
+        <v>137173851.69999999</v>
       </c>
       <c r="G100">
-        <v>19140230.100000001</v>
+        <v>22400011.100000001</v>
       </c>
       <c r="H100">
-        <v>3061663.9</v>
+        <v>3779995.5</v>
       </c>
       <c r="I100">
-        <v>40956361.899999999</v>
+        <v>49001009.700000003</v>
       </c>
       <c r="J100">
-        <v>14912602.1</v>
+        <v>18846693.800000001</v>
       </c>
       <c r="K100">
-        <v>26043759.800000001</v>
+        <v>30154315.899999999</v>
       </c>
       <c r="L100">
-        <v>21772132</v>
+        <v>24813404.5</v>
       </c>
       <c r="M100">
-        <v>3631047</v>
+        <v>4502660.8</v>
       </c>
       <c r="N100">
-        <v>640580.80000000005</v>
+        <v>838250.7</v>
       </c>
       <c r="O100">
-        <v>13131931.699999999</v>
+        <v>16545616.699999999</v>
       </c>
       <c r="P100">
-        <v>212020106.19999999</v>
+        <v>234049445.19999999</v>
       </c>
       <c r="Q100">
-        <v>1203181641</v>
+        <v>1190286076</v>
       </c>
       <c r="R100">
-        <v>1598943610</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1606259672</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
       <c r="A101" s="1">
-        <v>42826</v>
+        <v>42887</v>
       </c>
       <c r="B101" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C101">
-        <v>202918007.59999999</v>
+        <v>231401495.5</v>
       </c>
       <c r="D101">
-        <v>39564149.100000001</v>
+        <v>48524378.600000001</v>
       </c>
       <c r="E101">
-        <v>163353858.40000001</v>
+        <v>182877116.90000001</v>
       </c>
       <c r="F101">
-        <v>137173851.69999999</v>
+        <v>152096140.19999999</v>
       </c>
       <c r="G101">
-        <v>22400011.100000001</v>
+        <v>26156889</v>
       </c>
       <c r="H101">
-        <v>3779995.5</v>
+        <v>4624087.7</v>
       </c>
       <c r="I101">
-        <v>49001009.700000003</v>
+        <v>57855012.899999999</v>
       </c>
       <c r="J101">
-        <v>18846693.800000001</v>
+        <v>22945019.600000001</v>
       </c>
       <c r="K101">
-        <v>30154315.899999999</v>
+        <v>34909993.299999997</v>
       </c>
       <c r="L101">
-        <v>24813404.5</v>
+        <v>28421632.300000001</v>
       </c>
       <c r="M101">
-        <v>4502660.8</v>
+        <v>5470859.5999999996</v>
       </c>
       <c r="N101">
-        <v>838250.7</v>
+        <v>1017501.4</v>
       </c>
       <c r="O101">
-        <v>16545616.699999999</v>
+        <v>20341100.699999999</v>
       </c>
       <c r="P101">
-        <v>234049445.19999999</v>
+        <v>215932308.19999999</v>
       </c>
       <c r="Q101">
-        <v>1190286076</v>
+        <v>1234056354</v>
       </c>
       <c r="R101">
-        <v>1606259672</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1643044791</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
       <c r="A102" s="1">
-        <v>42856</v>
+        <v>42917</v>
       </c>
       <c r="B102" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C102">
-        <v>231401495.5</v>
+        <v>252675555.19999999</v>
       </c>
       <c r="D102">
-        <v>48524378.600000001</v>
+        <v>56292689.600000001</v>
       </c>
       <c r="E102">
-        <v>182877116.90000001</v>
+        <v>196382865.59999999</v>
       </c>
       <c r="F102">
-        <v>152096140.19999999</v>
+        <v>162214613.80000001</v>
       </c>
       <c r="G102">
-        <v>26156889</v>
+        <v>28864361.699999999</v>
       </c>
       <c r="H102">
-        <v>4624087.7</v>
+        <v>5303890.0999999996</v>
       </c>
       <c r="I102">
-        <v>57855012.899999999</v>
+        <v>65844323.399999999</v>
       </c>
       <c r="J102">
-        <v>22945019.600000001</v>
+        <v>26970622.199999999</v>
       </c>
       <c r="K102">
-        <v>34909993.299999997</v>
+        <v>38873701.299999997</v>
       </c>
       <c r="L102">
-        <v>28421632.300000001</v>
+        <v>31166512.899999999</v>
       </c>
       <c r="M102">
-        <v>5470859.5999999996</v>
+        <v>6505133.5999999996</v>
       </c>
       <c r="N102">
-        <v>1017501.4</v>
+        <v>1202054.7</v>
       </c>
       <c r="O102">
-        <v>20341100.699999999</v>
+        <v>23567819.199999999</v>
       </c>
       <c r="P102">
-        <v>215932308.19999999</v>
+        <v>195881169.69999999</v>
       </c>
       <c r="Q102">
-        <v>1234056354</v>
+        <v>1246764619</v>
       </c>
       <c r="R102">
-        <v>1643044791</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1632382960</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
       <c r="A103" s="1">
-        <v>42887</v>
+        <v>42948</v>
       </c>
       <c r="B103" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C103">
-        <v>252675555.19999999</v>
+        <v>276541770</v>
       </c>
       <c r="D103">
-        <v>56292689.600000001</v>
+        <v>63881132.899999999</v>
       </c>
       <c r="E103">
-        <v>196382865.59999999</v>
+        <v>212660637.09999999</v>
       </c>
       <c r="F103">
-        <v>162214613.80000001</v>
+        <v>174654969.09999999</v>
       </c>
       <c r="G103">
-        <v>28864361.699999999</v>
+        <v>31949255.100000001</v>
       </c>
       <c r="H103">
-        <v>5303890.0999999996</v>
+        <v>6056412.7999999998</v>
       </c>
       <c r="I103">
-        <v>65844323.399999999</v>
+        <v>74363643.400000006</v>
       </c>
       <c r="J103">
-        <v>26970622.199999999</v>
+        <v>31246191.600000001</v>
       </c>
       <c r="K103">
-        <v>38873701.299999997</v>
+        <v>43117451.799999997</v>
       </c>
       <c r="L103">
-        <v>31166512.899999999</v>
+        <v>34079551.100000001</v>
       </c>
       <c r="M103">
-        <v>6505133.5999999996</v>
+        <v>7624531.5</v>
       </c>
       <c r="N103">
-        <v>1202054.7</v>
+        <v>1413369.2</v>
       </c>
       <c r="O103">
-        <v>23567819.199999999</v>
+        <v>26731367.199999999</v>
       </c>
       <c r="P103">
-        <v>195881169.69999999</v>
+        <v>196178261.80000001</v>
       </c>
       <c r="Q103">
-        <v>1246764619</v>
+        <v>1250080801</v>
       </c>
       <c r="R103">
-        <v>1632382960</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1636143978</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
       <c r="A104" s="1">
-        <v>42917</v>
+        <v>42979</v>
       </c>
       <c r="B104" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C104">
-        <v>276541770</v>
+        <v>304573173.19999999</v>
       </c>
       <c r="D104">
-        <v>63881132.899999999</v>
+        <v>72302834.299999997</v>
       </c>
       <c r="E104">
-        <v>212660637.09999999</v>
+        <v>232270338.90000001</v>
       </c>
       <c r="F104">
-        <v>174654969.09999999</v>
+        <v>189409171</v>
       </c>
       <c r="G104">
-        <v>31949255.100000001</v>
+        <v>35830499.700000003</v>
       </c>
       <c r="H104">
-        <v>6056412.7999999998</v>
+        <v>7030668.2000000002</v>
       </c>
       <c r="I104">
-        <v>74363643.400000006</v>
+        <v>83272656.900000006</v>
       </c>
       <c r="J104">
-        <v>31246191.600000001</v>
+        <v>35669905.5</v>
       </c>
       <c r="K104">
-        <v>43117451.799999997</v>
+        <v>47602751.399999999</v>
       </c>
       <c r="L104">
-        <v>34079551.100000001</v>
+        <v>37133075.899999999</v>
       </c>
       <c r="M104">
-        <v>7624531.5</v>
+        <v>8846113.5999999996</v>
       </c>
       <c r="N104">
-        <v>1413369.2</v>
+        <v>1623561.9</v>
       </c>
       <c r="O104">
-        <v>26731367.199999999</v>
+        <v>30425390.199999999</v>
       </c>
       <c r="P104">
-        <v>196178261.80000001</v>
+        <v>201134669.59999999</v>
       </c>
       <c r="Q104">
-        <v>1250080801</v>
+        <v>1263582595</v>
       </c>
       <c r="R104">
-        <v>1636143978</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1658243166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
       <c r="A105" s="1">
-        <v>42948</v>
+        <v>43009</v>
       </c>
       <c r="B105" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C105">
-        <v>304573173.19999999</v>
+        <v>323887680</v>
       </c>
       <c r="D105">
-        <v>72302834.299999997</v>
+        <v>79611362</v>
       </c>
       <c r="E105">
-        <v>232270338.90000001</v>
+        <v>244276318</v>
       </c>
       <c r="F105">
-        <v>189409171</v>
+        <v>198156253.19999999</v>
       </c>
       <c r="G105">
-        <v>35830499.700000003</v>
+        <v>38420882.399999999</v>
       </c>
       <c r="H105">
-        <v>7030668.2000000002</v>
+        <v>7699182.2999999998</v>
       </c>
       <c r="I105">
-        <v>83272656.900000006</v>
+        <v>90846751.599999994</v>
       </c>
       <c r="J105">
-        <v>35669905.5</v>
+        <v>39443911</v>
       </c>
       <c r="K105">
-        <v>47602751.399999999</v>
+        <v>51402840.600000001</v>
       </c>
       <c r="L105">
-        <v>37133075.899999999</v>
+        <v>39776365.5</v>
       </c>
       <c r="M105">
-        <v>8846113.5999999996</v>
+        <v>9841803.6999999993</v>
       </c>
       <c r="N105">
-        <v>1623561.9</v>
+        <v>1784671.5</v>
       </c>
       <c r="O105">
-        <v>30425390.199999999</v>
+        <v>33410032.100000001</v>
       </c>
       <c r="P105">
-        <v>201134669.59999999</v>
+        <v>191123741.19999999</v>
       </c>
       <c r="Q105">
-        <v>1263582595</v>
+        <v>1278381460</v>
       </c>
       <c r="R105">
-        <v>1658243166</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1661984320</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
       <c r="A106" s="1">
-        <v>42979</v>
+        <v>43040</v>
       </c>
       <c r="B106" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C106">
-        <v>323887680</v>
+        <v>343975833.39999998</v>
       </c>
       <c r="D106">
-        <v>79611362</v>
+        <v>88130729.599999994</v>
       </c>
       <c r="E106">
-        <v>244276318</v>
+        <v>255845103.90000001</v>
       </c>
       <c r="F106">
-        <v>198156253.19999999</v>
+        <v>206441403.19999999</v>
       </c>
       <c r="G106">
-        <v>38420882.399999999</v>
+        <v>41055434.899999999</v>
       </c>
       <c r="H106">
-        <v>7699182.2999999998</v>
+        <v>8348265.7000000002</v>
       </c>
       <c r="I106">
-        <v>90846751.599999994</v>
+        <v>100908462.59999999</v>
       </c>
       <c r="J106">
-        <v>39443911</v>
+        <v>44522715.299999997</v>
       </c>
       <c r="K106">
-        <v>51402840.600000001</v>
+        <v>56385747.200000003</v>
       </c>
       <c r="L106">
-        <v>39776365.5</v>
+        <v>43136903.5</v>
       </c>
       <c r="M106">
-        <v>9841803.6999999993</v>
+        <v>11254075.800000001</v>
       </c>
       <c r="N106">
-        <v>1784671.5</v>
+        <v>1994767.9</v>
       </c>
       <c r="O106">
-        <v>33410032.100000001</v>
+        <v>37058547.700000003</v>
       </c>
       <c r="P106">
-        <v>191123741.19999999</v>
+        <v>193021087.40000001</v>
       </c>
       <c r="Q106">
-        <v>1278381460</v>
+        <v>1277177694</v>
       </c>
       <c r="R106">
-        <v>1661984320</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1664096887</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
       <c r="A107" s="1">
-        <v>43009</v>
+        <v>43070</v>
       </c>
       <c r="B107" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C107">
-        <v>343975833.39999998</v>
+        <v>365810073.89999998</v>
       </c>
       <c r="D107">
-        <v>88130729.599999994</v>
+        <v>98346579.099999994</v>
       </c>
       <c r="E107">
-        <v>255845103.90000001</v>
+        <v>267463494.80000001</v>
       </c>
       <c r="F107">
-        <v>206441403.19999999</v>
+        <v>214555650.30000001</v>
       </c>
       <c r="G107">
-        <v>41055434.899999999</v>
+        <v>43894603.799999997</v>
       </c>
       <c r="H107">
-        <v>8348265.7000000002</v>
+        <v>9013240.6999999993</v>
       </c>
       <c r="I107">
-        <v>100908462.59999999</v>
+        <v>111807932.59999999</v>
       </c>
       <c r="J107">
-        <v>44522715.299999997</v>
+        <v>50874496</v>
       </c>
       <c r="K107">
-        <v>56385747.200000003</v>
+        <v>60933436.600000001</v>
       </c>
       <c r="L107">
-        <v>43136903.5</v>
+        <v>45748906.899999999</v>
       </c>
       <c r="M107">
-        <v>11254075.800000001</v>
+        <v>12947670.199999999</v>
       </c>
       <c r="N107">
-        <v>1994767.9</v>
+        <v>2236859.5</v>
       </c>
       <c r="O107">
-        <v>37058547.700000003</v>
+        <v>42880643.399999999</v>
       </c>
       <c r="P107">
-        <v>193021087.40000001</v>
+        <v>192740725.30000001</v>
       </c>
       <c r="Q107">
-        <v>1277177694</v>
+        <v>1299321408</v>
       </c>
       <c r="R107">
-        <v>1664096887</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1674893735</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
       <c r="A108" s="1">
-        <v>43040</v>
+        <v>43101</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C108">
-        <v>365810073.89999998</v>
+        <v>68519191.799999997</v>
       </c>
       <c r="D108">
-        <v>98346579.099999994</v>
+        <v>11454663</v>
       </c>
       <c r="E108">
-        <v>267463494.80000001</v>
+        <v>57064528.799999997</v>
       </c>
       <c r="F108">
-        <v>214555650.30000001</v>
+        <v>50787454.100000001</v>
       </c>
       <c r="G108">
-        <v>43894603.799999997</v>
+        <v>5323376.0999999996</v>
       </c>
       <c r="H108">
-        <v>9013240.6999999993</v>
+        <v>953698.6</v>
       </c>
       <c r="I108">
-        <v>111807932.59999999</v>
+        <v>13131087.4</v>
       </c>
       <c r="J108">
-        <v>50874496</v>
+        <v>4753829.0999999996</v>
       </c>
       <c r="K108">
-        <v>60933436.600000001</v>
+        <v>8377258.2999999998</v>
       </c>
       <c r="L108">
-        <v>45748906.899999999</v>
+        <v>6525964.7999999998</v>
       </c>
       <c r="M108">
-        <v>12947670.199999999</v>
+        <v>1619936.2</v>
       </c>
       <c r="N108">
-        <v>2236859.5</v>
+        <v>231357.3</v>
       </c>
       <c r="O108">
-        <v>42880643.399999999</v>
+        <v>3179866.7</v>
       </c>
       <c r="P108">
-        <v>192740725.30000001</v>
+        <v>188340380.69999999</v>
       </c>
       <c r="Q108">
-        <v>1299321408</v>
+        <v>1313660367</v>
       </c>
       <c r="R108">
-        <v>1674893735</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1690528099</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
       <c r="A109" s="1">
-        <v>43070</v>
+        <v>43102</v>
       </c>
       <c r="B109" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C109">
-        <v>68519191.799999997</v>
+        <v>97034372.599999994</v>
       </c>
       <c r="D109">
-        <v>11454663</v>
+        <v>17721912.300000001</v>
       </c>
       <c r="E109">
-        <v>57064528.799999997</v>
+        <v>79312460.400000006</v>
       </c>
       <c r="F109">
-        <v>50787454.100000001</v>
+        <v>69017036.900000006</v>
       </c>
       <c r="G109">
-        <v>5323376.0999999996</v>
+        <v>8749972.5999999996</v>
       </c>
       <c r="H109">
-        <v>953698.6</v>
+        <v>1545450.8</v>
       </c>
       <c r="I109">
-        <v>13131087.4</v>
+        <v>22556676.600000001</v>
       </c>
       <c r="J109">
-        <v>4753829.0999999996</v>
+        <v>8241803.4000000004</v>
       </c>
       <c r="K109">
-        <v>8377258.2999999998</v>
+        <v>14314873.1</v>
       </c>
       <c r="L109">
-        <v>6525964.7999999998</v>
+        <v>11268009.800000001</v>
       </c>
       <c r="M109">
-        <v>1619936.2</v>
+        <v>2637951.6</v>
       </c>
       <c r="N109">
-        <v>231357.3</v>
+        <v>408911.8</v>
       </c>
       <c r="O109">
-        <v>3179866.7</v>
+        <v>6151769</v>
       </c>
       <c r="P109">
-        <v>188340380.69999999</v>
+        <v>190830329</v>
       </c>
       <c r="Q109">
-        <v>1313660367</v>
+        <v>1309099035</v>
       </c>
       <c r="R109">
-        <v>1690528099</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1688522210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
       <c r="A110" s="1">
-        <v>43101</v>
+        <v>43103</v>
       </c>
       <c r="B110" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C110">
-        <v>97034372.599999994</v>
+        <v>140843644</v>
       </c>
       <c r="D110">
-        <v>17721912.300000001</v>
+        <v>27529028.899999999</v>
       </c>
       <c r="E110">
-        <v>79312460.400000006</v>
+        <v>113314615.09999999</v>
       </c>
       <c r="F110">
-        <v>69017036.900000006</v>
+        <v>95008077.5</v>
       </c>
       <c r="G110">
-        <v>8749972.5999999996</v>
+        <v>15615207.1</v>
       </c>
       <c r="H110">
-        <v>1545450.8</v>
+        <v>2691330.5</v>
       </c>
       <c r="I110">
-        <v>22556676.600000001</v>
+        <v>32683157.199999999</v>
       </c>
       <c r="J110">
-        <v>8241803.4000000004</v>
+        <v>12552891.1</v>
       </c>
       <c r="K110">
-        <v>14314873.1</v>
+        <v>20130266.100000001</v>
       </c>
       <c r="L110">
-        <v>11268009.800000001</v>
+        <v>15683566.699999999</v>
       </c>
       <c r="M110">
-        <v>2637951.6</v>
+        <v>3837751.1</v>
       </c>
       <c r="N110">
-        <v>408911.8</v>
+        <v>608948.30000000005</v>
       </c>
       <c r="O110">
-        <v>6151769</v>
+        <v>9637904.6999999993</v>
       </c>
       <c r="P110">
-        <v>190830329</v>
+        <v>201820475.09999999</v>
       </c>
       <c r="Q110">
-        <v>1309099035</v>
+        <v>1324508930</v>
       </c>
       <c r="R110">
-        <v>1688522210</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1722424061</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
       <c r="A111" s="1">
-        <v>43132</v>
+        <v>43104</v>
       </c>
       <c r="B111" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C111">
-        <v>97034372.599999994</v>
+        <v>165854238.5</v>
       </c>
       <c r="D111">
-        <v>17721912.300000001</v>
+        <v>36308655.100000001</v>
       </c>
       <c r="E111">
-        <v>79312460.400000006</v>
+        <v>129545583.40000001</v>
       </c>
       <c r="F111">
-        <v>69017036.900000006</v>
+        <v>105672150.90000001</v>
       </c>
       <c r="G111">
-        <v>8749972.5999999996</v>
+        <v>20292291.5</v>
       </c>
       <c r="H111">
-        <v>1545450.8</v>
+        <v>3581141</v>
       </c>
       <c r="I111">
-        <v>22556676.600000001</v>
+        <v>40933668.700000003</v>
       </c>
       <c r="J111">
-        <v>8241803.4000000004</v>
+        <v>16817427.100000001</v>
       </c>
       <c r="K111">
-        <v>14314873.1</v>
+        <v>24116241.600000001</v>
       </c>
       <c r="L111">
-        <v>11268009.800000001</v>
+        <v>18384509.100000001</v>
       </c>
       <c r="M111">
-        <v>2637951.6</v>
+        <v>4935827</v>
       </c>
       <c r="N111">
-        <v>408911.8</v>
+        <v>795905.5</v>
       </c>
       <c r="O111">
-        <v>6151769</v>
+        <v>13114866.800000001</v>
       </c>
       <c r="P111">
-        <v>190830329</v>
+        <v>205083571.5</v>
       </c>
       <c r="Q111">
-        <v>1309099035</v>
+        <v>1335084892</v>
       </c>
       <c r="R111">
-        <v>1688522210</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1734425909</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
       <c r="A112" s="1">
-        <v>43160</v>
+        <v>43105</v>
       </c>
       <c r="B112" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C112">
-        <v>140843644</v>
+        <v>191030191.69999999</v>
       </c>
       <c r="D112">
-        <v>27529028.899999999</v>
+        <v>44747726.600000001</v>
       </c>
       <c r="E112">
-        <v>113314615.09999999</v>
+        <v>146282465.19999999</v>
       </c>
       <c r="F112">
-        <v>95008077.5</v>
+        <v>117350998.40000001</v>
       </c>
       <c r="G112">
-        <v>15615207.1</v>
+        <v>24487926.199999999</v>
       </c>
       <c r="H112">
-        <v>2691330.5</v>
+        <v>4443540.5999999996</v>
       </c>
       <c r="I112">
-        <v>32683157.199999999</v>
+        <v>50159128.299999997</v>
       </c>
       <c r="J112">
-        <v>12552891.1</v>
+        <v>21639207.199999999</v>
       </c>
       <c r="K112">
-        <v>20130266.100000001</v>
+        <v>28519921.100000001</v>
       </c>
       <c r="L112">
-        <v>15683566.699999999</v>
+        <v>21320232.800000001</v>
       </c>
       <c r="M112">
-        <v>3837751.1</v>
+        <v>6195668.5</v>
       </c>
       <c r="N112">
-        <v>608948.30000000005</v>
+        <v>1004019.8</v>
       </c>
       <c r="O112">
-        <v>9637904.6999999993</v>
+        <v>16753434.9</v>
       </c>
       <c r="P112">
-        <v>201820475.09999999</v>
+        <v>197739277.30000001</v>
       </c>
       <c r="Q112">
-        <v>1324508930</v>
+        <v>1357135368</v>
       </c>
       <c r="R112">
-        <v>1722424061</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1750355659</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
       <c r="A113" s="1">
-        <v>43191</v>
+        <v>43106</v>
       </c>
       <c r="B113" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C113">
-        <v>165854238.5</v>
+        <v>223693980.5</v>
       </c>
       <c r="D113">
-        <v>36308655.100000001</v>
+        <v>54418227.799999997</v>
       </c>
       <c r="E113">
-        <v>129545583.40000001</v>
+        <v>169275752.69999999</v>
       </c>
       <c r="F113">
-        <v>105672150.90000001</v>
+        <v>133614372</v>
       </c>
       <c r="G113">
-        <v>20292291.5</v>
+        <v>30194484.100000001</v>
       </c>
       <c r="H113">
-        <v>3581141</v>
+        <v>5466896.5999999996</v>
       </c>
       <c r="I113">
-        <v>40933668.700000003</v>
+        <v>59877818.700000003</v>
       </c>
       <c r="J113">
-        <v>16817427.100000001</v>
+        <v>26285790.5</v>
       </c>
       <c r="K113">
-        <v>24116241.600000001</v>
+        <v>33592028.200000003</v>
       </c>
       <c r="L113">
-        <v>18384509.100000001</v>
+        <v>24894036.300000001</v>
       </c>
       <c r="M113">
-        <v>4935827</v>
+        <v>7450000.0999999996</v>
       </c>
       <c r="N113">
-        <v>795905.5</v>
+        <v>1247991.8</v>
       </c>
       <c r="O113">
-        <v>13114866.800000001</v>
+        <v>20612738.5</v>
       </c>
       <c r="P113">
-        <v>205083571.5</v>
+        <v>214203848.80000001</v>
       </c>
       <c r="Q113">
-        <v>1335084892</v>
+        <v>1354532926</v>
       </c>
       <c r="R113">
-        <v>1734425909</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1764421684</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
       <c r="A114" s="1">
-        <v>43221</v>
+        <v>43107</v>
       </c>
       <c r="B114" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C114">
-        <v>191030191.69999999</v>
+        <v>246702330.69999999</v>
       </c>
       <c r="D114">
-        <v>44747726.600000001</v>
+        <v>62720978.700000003</v>
       </c>
       <c r="E114">
-        <v>146282465.19999999</v>
+        <v>183981352.09999999</v>
       </c>
       <c r="F114">
-        <v>117350998.40000001</v>
+        <v>143801988.5</v>
       </c>
       <c r="G114">
-        <v>24487926.199999999</v>
+        <v>33898589.799999997</v>
       </c>
       <c r="H114">
-        <v>4443540.5999999996</v>
+        <v>6280773.7999999998</v>
       </c>
       <c r="I114">
-        <v>50159128.299999997</v>
+        <v>69229713.200000003</v>
       </c>
       <c r="J114">
-        <v>21639207.199999999</v>
+        <v>31236590.600000001</v>
       </c>
       <c r="K114">
-        <v>28519921.100000001</v>
+        <v>37993122.600000001</v>
       </c>
       <c r="L114">
-        <v>21320232.800000001</v>
+        <v>27683181.5</v>
       </c>
       <c r="M114">
-        <v>6195668.5</v>
+        <v>8832839.5</v>
       </c>
       <c r="N114">
-        <v>1004019.8</v>
+        <v>1477101.7</v>
       </c>
       <c r="O114">
-        <v>16753434.9</v>
+        <v>24699352.5</v>
       </c>
       <c r="P114">
-        <v>197739277.30000001</v>
+        <v>205416114.40000001</v>
       </c>
       <c r="Q114">
-        <v>1357135368</v>
+        <v>1364407426</v>
       </c>
       <c r="R114">
-        <v>1750355659</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1765461842</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
       <c r="A115" s="1">
-        <v>43252</v>
+        <v>43108</v>
       </c>
       <c r="B115" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C115">
-        <v>223693980.5</v>
+        <v>274495776.39999998</v>
       </c>
       <c r="D115">
-        <v>54418227.799999997</v>
+        <v>71060702.799999997</v>
       </c>
       <c r="E115">
-        <v>169275752.69999999</v>
+        <v>203435073.59999999</v>
       </c>
       <c r="F115">
-        <v>133614372</v>
+        <v>158325610.69999999</v>
       </c>
       <c r="G115">
-        <v>30194484.100000001</v>
+        <v>37964343.5</v>
       </c>
       <c r="H115">
-        <v>5466896.5999999996</v>
+        <v>7145119.5</v>
       </c>
       <c r="I115">
-        <v>59877818.700000003</v>
+        <v>79646083.599999994</v>
       </c>
       <c r="J115">
-        <v>26285790.5</v>
+        <v>36253474.600000001</v>
       </c>
       <c r="K115">
-        <v>33592028.200000003</v>
+        <v>43392609</v>
       </c>
       <c r="L115">
-        <v>24894036.300000001</v>
+        <v>31274931.5</v>
       </c>
       <c r="M115">
-        <v>7450000.0999999996</v>
+        <v>10395133.9</v>
       </c>
       <c r="N115">
-        <v>1247991.8</v>
+        <v>1722543.6</v>
       </c>
       <c r="O115">
-        <v>20612738.5</v>
+        <v>28464595.199999999</v>
       </c>
       <c r="P115">
-        <v>214203848.80000001</v>
+        <v>216052277.5</v>
       </c>
       <c r="Q115">
-        <v>1354532926</v>
+        <v>1354923245</v>
       </c>
       <c r="R115">
-        <v>1764421684</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1765550426</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
       <c r="A116" s="1">
-        <v>43282</v>
+        <v>43109</v>
       </c>
       <c r="B116" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C116">
-        <v>246702330.69999999</v>
+        <v>306617946.10000002</v>
       </c>
       <c r="D116">
-        <v>62720978.700000003</v>
+        <v>80034035.200000003</v>
       </c>
       <c r="E116">
-        <v>183981352.09999999</v>
+        <v>226583910.90000001</v>
       </c>
       <c r="F116">
-        <v>143801988.5</v>
+        <v>174907543.19999999</v>
       </c>
       <c r="G116">
-        <v>33898589.799999997</v>
+        <v>43370061.200000003</v>
       </c>
       <c r="H116">
-        <v>6280773.7999999998</v>
+        <v>8306306.5999999996</v>
       </c>
       <c r="I116">
-        <v>69229713.200000003</v>
+        <v>91294191</v>
       </c>
       <c r="J116">
-        <v>31236590.600000001</v>
+        <v>41495567.399999999</v>
       </c>
       <c r="K116">
-        <v>37993122.600000001</v>
+        <v>49798623.600000001</v>
       </c>
       <c r="L116">
-        <v>27683181.5</v>
+        <v>35892671.700000003</v>
       </c>
       <c r="M116">
-        <v>8832839.5</v>
+        <v>11952691.300000001</v>
       </c>
       <c r="N116">
-        <v>1477101.7</v>
+        <v>1953260.6</v>
       </c>
       <c r="O116">
-        <v>24699352.5</v>
+        <v>32361735.199999999</v>
       </c>
       <c r="P116">
-        <v>205416114.40000001</v>
+        <v>228498972.09999999</v>
       </c>
       <c r="Q116">
-        <v>1364407426</v>
+        <v>1358887415</v>
       </c>
       <c r="R116">
-        <v>1765461842</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1787535631</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
       <c r="A117" s="1">
-        <v>43313</v>
+        <v>43110</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C117">
-        <v>274495776.39999998</v>
+        <v>330319725.5</v>
       </c>
       <c r="D117">
-        <v>71060702.799999997</v>
+        <v>88026014.5</v>
       </c>
       <c r="E117">
-        <v>203435073.59999999</v>
+        <v>242293711</v>
       </c>
       <c r="F117">
-        <v>158325610.69999999</v>
+        <v>186000113.80000001</v>
       </c>
       <c r="G117">
-        <v>37964343.5</v>
+        <v>47140148</v>
       </c>
       <c r="H117">
-        <v>7145119.5</v>
+        <v>9153449.1999999993</v>
       </c>
       <c r="I117">
-        <v>79646083.599999994</v>
+        <v>100136950</v>
       </c>
       <c r="J117">
-        <v>36253474.600000001</v>
+        <v>45976372.399999999</v>
       </c>
       <c r="K117">
-        <v>43392609</v>
+        <v>54160577.600000001</v>
       </c>
       <c r="L117">
-        <v>31274931.5</v>
+        <v>38624112</v>
       </c>
       <c r="M117">
-        <v>10395133.9</v>
+        <v>13389363.9</v>
       </c>
       <c r="N117">
-        <v>1722543.6</v>
+        <v>2147101.7000000002</v>
       </c>
       <c r="O117">
-        <v>28464595.199999999</v>
+        <v>36106616.399999999</v>
       </c>
       <c r="P117">
-        <v>216052277.5</v>
+        <v>221902137</v>
       </c>
       <c r="Q117">
-        <v>1354923245</v>
+        <v>1357316593</v>
       </c>
       <c r="R117">
-        <v>1765550426</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1778029252</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
       <c r="A118" s="1">
-        <v>43344</v>
+        <v>43111</v>
       </c>
       <c r="B118" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C118">
-        <v>306617946.10000002</v>
+        <v>354195034.89999998</v>
       </c>
       <c r="D118">
-        <v>80034035.200000003</v>
+        <v>97012739.799999997</v>
       </c>
       <c r="E118">
-        <v>226583910.90000001</v>
+        <v>257182295.09999999</v>
       </c>
       <c r="F118">
-        <v>174907543.19999999</v>
+        <v>196640489.90000001</v>
       </c>
       <c r="G118">
-        <v>43370061.200000003</v>
+        <v>50587972.100000001</v>
       </c>
       <c r="H118">
-        <v>8306306.5999999996</v>
+        <v>9953833.1999999993</v>
       </c>
       <c r="I118">
-        <v>91294191</v>
+        <v>110924470</v>
       </c>
       <c r="J118">
-        <v>41495567.399999999</v>
+        <v>51766716.600000001</v>
       </c>
       <c r="K118">
-        <v>49798623.600000001</v>
+        <v>59157753.399999999</v>
       </c>
       <c r="L118">
-        <v>35892671.700000003</v>
+        <v>41526585.600000001</v>
       </c>
       <c r="M118">
-        <v>11952691.300000001</v>
+        <v>15232183.5</v>
       </c>
       <c r="N118">
-        <v>1953260.6</v>
+        <v>2398984.2999999998</v>
       </c>
       <c r="O118">
-        <v>32361735.199999999</v>
+        <v>40496215.5</v>
       </c>
       <c r="P118">
-        <v>228498972.09999999</v>
+        <v>232268213.19999999</v>
       </c>
       <c r="Q118">
-        <v>1358887415</v>
+        <v>1370768583</v>
       </c>
       <c r="R118">
-        <v>1787535631</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1800680246</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
       <c r="A119" s="1">
-        <v>43374</v>
+        <v>43112</v>
       </c>
       <c r="B119" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C119">
-        <v>330319725.5</v>
+        <v>380166228.69999999</v>
       </c>
       <c r="D119">
-        <v>88026014.5</v>
+        <v>107700823.59999999</v>
       </c>
       <c r="E119">
-        <v>242293711</v>
+        <v>272465405</v>
       </c>
       <c r="F119">
-        <v>186000113.80000001</v>
+        <v>207228622.40000001</v>
       </c>
       <c r="G119">
-        <v>47140148</v>
+        <v>54481260.600000001</v>
       </c>
       <c r="H119">
-        <v>9153449.1999999993</v>
+        <v>10755522</v>
       </c>
       <c r="I119">
-        <v>100136950</v>
+        <v>122978748</v>
       </c>
       <c r="J119">
-        <v>45976372.399999999</v>
+        <v>58973204.200000003</v>
       </c>
       <c r="K119">
-        <v>54160577.600000001</v>
+        <v>64005543.799999997</v>
       </c>
       <c r="L119">
-        <v>38624112</v>
+        <v>43885216.600000001</v>
       </c>
       <c r="M119">
-        <v>13389363.9</v>
+        <v>17443361.300000001</v>
       </c>
       <c r="N119">
-        <v>2147101.7000000002</v>
+        <v>2676965.9</v>
       </c>
       <c r="O119">
-        <v>36106616.399999999</v>
+        <v>47177328.600000001</v>
       </c>
       <c r="P119">
-        <v>221902137</v>
+        <v>243634975.90000001</v>
       </c>
       <c r="Q119">
-        <v>1357316593</v>
+        <v>1397248776</v>
       </c>
       <c r="R119">
-        <v>1778029252</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1833089187</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
       <c r="A120" s="1">
-        <v>43405</v>
+        <v>43466</v>
       </c>
       <c r="B120" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C120">
-        <v>354195034.89999998</v>
+        <v>85000000</v>
       </c>
       <c r="D120">
-        <v>97012739.799999997</v>
+        <v>13050000</v>
       </c>
       <c r="E120">
-        <v>257182295.09999999</v>
+        <v>71950000</v>
       </c>
       <c r="F120">
-        <v>196640489.90000001</v>
+        <v>62720000</v>
       </c>
       <c r="G120">
-        <v>50587972.100000001</v>
+        <v>7980000</v>
       </c>
       <c r="H120">
-        <v>9953833.1999999993</v>
+        <v>1250000</v>
       </c>
       <c r="I120">
-        <v>110924470</v>
+        <v>13900000</v>
       </c>
       <c r="J120">
-        <v>51766716.600000001</v>
+        <v>6110000</v>
       </c>
       <c r="K120">
-        <v>59157753.399999999</v>
+        <v>7780000</v>
       </c>
       <c r="L120">
-        <v>41526585.600000001</v>
+        <v>5240000</v>
       </c>
       <c r="M120">
-        <v>15232183.5</v>
+        <v>2230000</v>
       </c>
       <c r="N120">
-        <v>2398984.2999999998</v>
+        <v>310000</v>
       </c>
       <c r="O120">
-        <v>40496215.5</v>
+        <v>4690000</v>
       </c>
       <c r="P120">
-        <v>232268213.19999999</v>
+        <v>249480000</v>
       </c>
       <c r="Q120">
-        <v>1370768583</v>
+        <v>768310000</v>
       </c>
       <c r="R120">
-        <v>1800680246</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1874780000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
       <c r="A121" s="1">
-        <v>43435</v>
+        <v>43497</v>
       </c>
       <c r="B121" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C121">
-        <v>380166228.69999999</v>
+        <v>116380000</v>
       </c>
       <c r="D121">
-        <v>107700823.59999999</v>
+        <v>19170000</v>
       </c>
       <c r="E121">
-        <v>272465405</v>
+        <v>97210000</v>
       </c>
       <c r="F121">
-        <v>207228622.40000001</v>
+        <v>82610000</v>
       </c>
       <c r="G121">
-        <v>54481260.600000001</v>
+        <v>12630000</v>
       </c>
       <c r="H121">
-        <v>10755522</v>
+        <v>1970000</v>
       </c>
       <c r="I121">
-        <v>122978748</v>
+        <v>22400000</v>
       </c>
       <c r="J121">
-        <v>58973204.200000003</v>
+        <v>9340000</v>
       </c>
       <c r="K121">
-        <v>64005543.799999997</v>
+        <v>13060000</v>
       </c>
       <c r="L121">
-        <v>43885216.600000001</v>
+        <v>9180000</v>
       </c>
       <c r="M121">
-        <v>17443361.300000001</v>
+        <v>3400000</v>
       </c>
       <c r="N121">
-        <v>2676965.9</v>
+        <v>480000</v>
       </c>
       <c r="O121">
-        <v>47177328.600000001</v>
+        <v>8300000</v>
       </c>
       <c r="P121">
-        <v>243634975.90000001</v>
+        <v>252380000</v>
       </c>
       <c r="Q121">
-        <v>1397248776</v>
+        <v>778050000</v>
       </c>
       <c r="R121">
-        <v>1833089187</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1885450000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
       <c r="A122" s="1">
-        <v>43466</v>
+        <v>43525</v>
       </c>
       <c r="B122" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C122">
-        <v>85000000</v>
+        <v>163220000</v>
       </c>
       <c r="D122">
-        <v>13050000</v>
+        <v>29530000</v>
       </c>
       <c r="E122">
-        <v>71950000</v>
+        <v>133690000</v>
       </c>
       <c r="F122">
-        <v>62720000</v>
+        <v>108630000</v>
       </c>
       <c r="G122">
-        <v>7980000</v>
+        <v>21720000</v>
       </c>
       <c r="H122">
-        <v>1250000</v>
+        <v>3340000</v>
       </c>
       <c r="I122">
-        <v>13900000</v>
+        <v>33180000</v>
       </c>
       <c r="J122">
-        <v>6110000</v>
+        <v>14280000</v>
       </c>
       <c r="K122">
-        <v>7780000</v>
+        <v>18910000</v>
       </c>
       <c r="L122">
-        <v>5240000</v>
+        <v>13150000</v>
       </c>
       <c r="M122">
-        <v>2230000</v>
+        <v>5040000</v>
       </c>
       <c r="N122">
-        <v>310000</v>
+        <v>720000</v>
       </c>
       <c r="O122">
-        <v>4690000</v>
+        <v>12680000</v>
       </c>
       <c r="P122">
-        <v>249480000</v>
+        <v>261890000</v>
       </c>
       <c r="Q122">
-        <v>768310000</v>
+        <v>778480000</v>
       </c>
       <c r="R122">
-        <v>1874780000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1910820000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
       <c r="A123" s="1">
-        <v>43497</v>
+        <v>43556</v>
       </c>
       <c r="B123" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C123">
-        <v>116380000</v>
+        <v>190590000</v>
       </c>
       <c r="D123">
-        <v>19170000</v>
+        <v>38880000</v>
       </c>
       <c r="E123">
-        <v>97210000</v>
+        <v>151720000</v>
       </c>
       <c r="F123">
-        <v>82610000</v>
+        <v>120050000</v>
       </c>
       <c r="G123">
-        <v>12630000</v>
+        <v>27320000</v>
       </c>
       <c r="H123">
+        <v>4350000</v>
+      </c>
+      <c r="I123">
+        <v>42970000</v>
+      </c>
+      <c r="J123">
+        <v>19540000</v>
+      </c>
+      <c r="K123">
+        <v>23430000</v>
+      </c>
+      <c r="L123">
+        <v>15710000</v>
+      </c>
+      <c r="M123">
+        <v>6760000</v>
+      </c>
+      <c r="N123">
+        <v>960000</v>
+      </c>
+      <c r="O123">
+        <v>16690000</v>
+      </c>
+      <c r="P123">
+        <v>253310000</v>
+      </c>
+      <c r="Q123">
+        <v>788360000</v>
+      </c>
+      <c r="R123">
+        <v>1904450000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B124" t="s">
+        <v>140</v>
+      </c>
+      <c r="C124">
+        <v>218540000</v>
+      </c>
+      <c r="D124">
+        <v>48050000</v>
+      </c>
+      <c r="E124">
+        <v>170490000</v>
+      </c>
+      <c r="F124">
+        <v>132520000</v>
+      </c>
+      <c r="G124">
+        <v>32650000</v>
+      </c>
+      <c r="H124">
+        <v>5320000</v>
+      </c>
+      <c r="I124">
+        <v>52520000</v>
+      </c>
+      <c r="J124">
+        <v>24450000</v>
+      </c>
+      <c r="K124">
+        <v>28070000</v>
+      </c>
+      <c r="L124">
+        <v>18370000</v>
+      </c>
+      <c r="M124">
+        <v>8500000</v>
+      </c>
+      <c r="N124">
+        <v>1200000</v>
+      </c>
+      <c r="O124">
+        <v>20740000</v>
+      </c>
+      <c r="P124">
+        <v>255580000</v>
+      </c>
+      <c r="Q124">
+        <v>792210000</v>
+      </c>
+      <c r="R124">
+        <v>1907410000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B125" t="s">
+        <v>141</v>
+      </c>
+      <c r="C125">
+        <v>255370000</v>
+      </c>
+      <c r="D125">
+        <v>58930000</v>
+      </c>
+      <c r="E125">
+        <v>196440000</v>
+      </c>
+      <c r="F125">
+        <v>150270000</v>
+      </c>
+      <c r="G125">
+        <v>39760000</v>
+      </c>
+      <c r="H125">
+        <v>6410000</v>
+      </c>
+      <c r="I125">
+        <v>62320000</v>
+      </c>
+      <c r="J125">
+        <v>29180000</v>
+      </c>
+      <c r="K125">
+        <v>33140000</v>
+      </c>
+      <c r="L125">
+        <v>21520000</v>
+      </c>
+      <c r="M125">
+        <v>10200000</v>
+      </c>
+      <c r="N125">
+        <v>1430000</v>
+      </c>
+      <c r="O125">
+        <v>25360000</v>
+      </c>
+      <c r="P125">
+        <v>263350000</v>
+      </c>
+      <c r="Q125">
+        <v>817340000</v>
+      </c>
+      <c r="R125">
+        <v>1950260000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="A126" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B126" t="s">
+        <v>142</v>
+      </c>
+      <c r="C126">
+        <v>280860000</v>
+      </c>
+      <c r="D126">
+        <v>67730000</v>
+      </c>
+      <c r="E126">
+        <v>213140000</v>
+      </c>
+      <c r="F126">
+        <v>161360000</v>
+      </c>
+      <c r="G126">
+        <v>44440000</v>
+      </c>
+      <c r="H126">
+        <v>7330000</v>
+      </c>
+      <c r="I126">
+        <v>72540000</v>
+      </c>
+      <c r="J126">
+        <v>34580000</v>
+      </c>
+      <c r="K126">
+        <v>37960000</v>
+      </c>
+      <c r="L126">
+        <v>23970000</v>
+      </c>
+      <c r="M126">
+        <v>12290000</v>
+      </c>
+      <c r="N126">
+        <v>1700000</v>
+      </c>
+      <c r="O126">
+        <v>29430000</v>
+      </c>
+      <c r="P126">
+        <v>249310000</v>
+      </c>
+      <c r="Q126">
+        <v>824640000</v>
+      </c>
+      <c r="R126">
+        <v>1943920000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="A127" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B127" t="s">
+        <v>143</v>
+      </c>
+      <c r="C127">
+        <v>310280000</v>
+      </c>
+      <c r="D127">
+        <v>76860000</v>
+      </c>
+      <c r="E127">
+        <v>233420000</v>
+      </c>
+      <c r="F127">
+        <v>175280000</v>
+      </c>
+      <c r="G127">
+        <v>49910000</v>
+      </c>
+      <c r="H127">
+        <v>8230000</v>
+      </c>
+      <c r="I127">
+        <v>82900000</v>
+      </c>
+      <c r="J127">
+        <v>39960000</v>
+      </c>
+      <c r="K127">
+        <v>42940000</v>
+      </c>
+      <c r="L127">
+        <v>26680000</v>
+      </c>
+      <c r="M127">
+        <v>14300000</v>
+      </c>
+      <c r="N127">
         <v>1970000</v>
       </c>
-      <c r="I123">
-        <v>22400000</v>
-      </c>
-      <c r="J123">
-        <v>9340000</v>
-      </c>
-      <c r="K123">
-        <v>13060000</v>
-      </c>
-      <c r="L123">
-        <v>9180000</v>
-      </c>
-      <c r="M123">
-        <v>3400000</v>
-      </c>
-      <c r="N123">
-        <v>480000</v>
-      </c>
-      <c r="O123">
-        <v>8300000</v>
-      </c>
-      <c r="P123">
-        <v>252380000</v>
-      </c>
-      <c r="Q123">
-        <v>778050000</v>
-      </c>
-      <c r="R123">
-        <v>1885450000</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
-        <v>43525</v>
-      </c>
-      <c r="B124" t="s">
-        <v>139</v>
-      </c>
-      <c r="C124">
-        <v>163220000</v>
-      </c>
-      <c r="D124">
-        <v>29530000</v>
-      </c>
-      <c r="E124">
-        <v>133690000</v>
-      </c>
-      <c r="F124">
-        <v>108630000</v>
-      </c>
-      <c r="G124">
-        <v>21720000</v>
-      </c>
-      <c r="H124">
-        <v>3340000</v>
-      </c>
-      <c r="I124">
-        <v>33180000</v>
-      </c>
-      <c r="J124">
-        <v>14280000</v>
-      </c>
-      <c r="K124">
-        <v>18910000</v>
-      </c>
-      <c r="L124">
-        <v>13150000</v>
-      </c>
-      <c r="M124">
-        <v>5040000</v>
-      </c>
-      <c r="N124">
-        <v>720000</v>
-      </c>
-      <c r="O124">
-        <v>12680000</v>
-      </c>
-      <c r="P124">
-        <v>261890000</v>
-      </c>
-      <c r="Q124">
-        <v>778480000</v>
-      </c>
-      <c r="R124">
-        <v>1910820000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
-        <v>43556</v>
-      </c>
-      <c r="B125" t="s">
-        <v>140</v>
-      </c>
-      <c r="C125">
-        <v>190590000</v>
-      </c>
-      <c r="D125">
-        <v>38880000</v>
-      </c>
-      <c r="E125">
-        <v>151720000</v>
-      </c>
-      <c r="F125">
-        <v>120050000</v>
-      </c>
-      <c r="G125">
-        <v>27320000</v>
-      </c>
-      <c r="H125">
-        <v>4350000</v>
-      </c>
-      <c r="I125">
-        <v>42970000</v>
-      </c>
-      <c r="J125">
-        <v>19540000</v>
-      </c>
-      <c r="K125">
-        <v>23430000</v>
-      </c>
-      <c r="L125">
-        <v>15710000</v>
-      </c>
-      <c r="M125">
-        <v>6760000</v>
-      </c>
-      <c r="N125">
-        <v>960000</v>
-      </c>
-      <c r="O125">
-        <v>16690000</v>
-      </c>
-      <c r="P125">
-        <v>253310000</v>
-      </c>
-      <c r="Q125">
-        <v>788360000</v>
-      </c>
-      <c r="R125">
-        <v>1904450000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
-        <v>43586</v>
-      </c>
-      <c r="B126" t="s">
-        <v>141</v>
-      </c>
-      <c r="C126">
-        <v>218540000</v>
-      </c>
-      <c r="D126">
-        <v>48050000</v>
-      </c>
-      <c r="E126">
-        <v>170490000</v>
-      </c>
-      <c r="F126">
-        <v>132520000</v>
-      </c>
-      <c r="G126">
+      <c r="O127">
+        <v>33420000</v>
+      </c>
+      <c r="P127">
+        <v>251320000</v>
+      </c>
+      <c r="Q127">
+        <v>834880000</v>
+      </c>
+      <c r="R127">
+        <v>1971490000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B128" t="s">
+        <v>144</v>
+      </c>
+      <c r="C128">
+        <v>345200000</v>
+      </c>
+      <c r="D128">
+        <v>86580000</v>
+      </c>
+      <c r="E128">
+        <v>258620000</v>
+      </c>
+      <c r="F128">
+        <v>192540000</v>
+      </c>
+      <c r="G128">
+        <v>56770000</v>
+      </c>
+      <c r="H128">
+        <v>9300000</v>
+      </c>
+      <c r="I128">
+        <v>94110000</v>
+      </c>
+      <c r="J128">
+        <v>45400000</v>
+      </c>
+      <c r="K128">
+        <v>48710000</v>
+      </c>
+      <c r="L128">
+        <v>30170000</v>
+      </c>
+      <c r="M128">
+        <v>16370000</v>
+      </c>
+      <c r="N128">
+        <v>2180000</v>
+      </c>
+      <c r="O128">
+        <v>37920000</v>
+      </c>
+      <c r="P128">
+        <v>252130000</v>
+      </c>
+      <c r="Q128">
+        <v>838040000</v>
+      </c>
+      <c r="R128">
+        <v>1996010000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
+      <c r="A129" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B129" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129">
+        <v>370580000</v>
+      </c>
+      <c r="D129">
+        <v>95420000</v>
+      </c>
+      <c r="E129">
+        <v>275160000</v>
+      </c>
+      <c r="F129">
+        <v>203600000</v>
+      </c>
+      <c r="G129">
+        <v>61410000</v>
+      </c>
+      <c r="H129">
+        <v>10150000</v>
+      </c>
+      <c r="I129">
+        <v>103870000</v>
+      </c>
+      <c r="J129">
+        <v>50440000</v>
+      </c>
+      <c r="K129">
+        <v>53440000</v>
+      </c>
+      <c r="L129">
         <v>32650000</v>
       </c>
-      <c r="H126">
-        <v>5320000</v>
-      </c>
-      <c r="I126">
-        <v>52520000</v>
-      </c>
-      <c r="J126">
-        <v>24450000</v>
-      </c>
-      <c r="K126">
-        <v>28070000</v>
-      </c>
-      <c r="L126">
-        <v>18370000</v>
-      </c>
-      <c r="M126">
-        <v>8500000</v>
-      </c>
-      <c r="N126">
-        <v>1200000</v>
-      </c>
-      <c r="O126">
-        <v>20740000</v>
-      </c>
-      <c r="P126">
-        <v>255580000</v>
-      </c>
-      <c r="Q126">
-        <v>792210000</v>
-      </c>
-      <c r="R126">
-        <v>1907410000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
-        <v>43617</v>
-      </c>
-      <c r="B127" t="s">
-        <v>142</v>
-      </c>
-      <c r="C127">
-        <v>255370000</v>
-      </c>
-      <c r="D127">
-        <v>58930000</v>
-      </c>
-      <c r="E127">
-        <v>196440000</v>
-      </c>
-      <c r="F127">
-        <v>150270000</v>
-      </c>
-      <c r="G127">
-        <v>39760000</v>
-      </c>
-      <c r="H127">
-        <v>6410000</v>
-      </c>
-      <c r="I127">
-        <v>62320000</v>
-      </c>
-      <c r="J127">
-        <v>29180000</v>
-      </c>
-      <c r="K127">
-        <v>33140000</v>
-      </c>
-      <c r="L127">
-        <v>21520000</v>
-      </c>
-      <c r="M127">
-        <v>10200000</v>
-      </c>
-      <c r="N127">
-        <v>1430000</v>
-      </c>
-      <c r="O127">
-        <v>25360000</v>
-      </c>
-      <c r="P127">
-        <v>263350000</v>
-      </c>
-      <c r="Q127">
-        <v>817340000</v>
-      </c>
-      <c r="R127">
-        <v>1950260000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
-        <v>43647</v>
-      </c>
-      <c r="B128" t="s">
-        <v>143</v>
-      </c>
-      <c r="C128">
-        <v>280860000</v>
-      </c>
-      <c r="D128">
-        <v>67730000</v>
-      </c>
-      <c r="E128">
-        <v>213140000</v>
-      </c>
-      <c r="F128">
-        <v>161360000</v>
-      </c>
-      <c r="G128">
-        <v>44440000</v>
-      </c>
-      <c r="H128">
-        <v>7330000</v>
-      </c>
-      <c r="I128">
-        <v>72540000</v>
-      </c>
-      <c r="J128">
-        <v>34580000</v>
-      </c>
-      <c r="K128">
-        <v>37960000</v>
-      </c>
-      <c r="L128">
-        <v>23970000</v>
-      </c>
-      <c r="M128">
-        <v>12290000</v>
-      </c>
-      <c r="N128">
-        <v>1700000</v>
-      </c>
-      <c r="O128">
-        <v>29430000</v>
-      </c>
-      <c r="P128">
-        <v>249310000</v>
-      </c>
-      <c r="Q128">
-        <v>824640000</v>
-      </c>
-      <c r="R128">
-        <v>1943920000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
-        <v>43678</v>
-      </c>
-      <c r="B129" t="s">
-        <v>144</v>
-      </c>
-      <c r="C129">
-        <v>310280000</v>
-      </c>
-      <c r="D129">
-        <v>76860000</v>
-      </c>
-      <c r="E129">
-        <v>233420000</v>
-      </c>
-      <c r="F129">
-        <v>175280000</v>
-      </c>
-      <c r="G129">
-        <v>49910000</v>
-      </c>
-      <c r="H129">
-        <v>8230000</v>
-      </c>
-      <c r="I129">
-        <v>82900000</v>
-      </c>
-      <c r="J129">
-        <v>39960000</v>
-      </c>
-      <c r="K129">
-        <v>42940000</v>
-      </c>
-      <c r="L129">
-        <v>26680000</v>
-      </c>
       <c r="M129">
-        <v>14300000</v>
+        <v>18380000</v>
       </c>
       <c r="N129">
-        <v>1970000</v>
+        <v>2400000</v>
       </c>
       <c r="O129">
-        <v>33420000</v>
+        <v>42100000</v>
       </c>
       <c r="P129">
-        <v>251320000</v>
+        <v>244580000</v>
       </c>
       <c r="Q129">
-        <v>834880000</v>
+        <v>845930000</v>
       </c>
       <c r="R129">
-        <v>1971490000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1998760000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
       <c r="A130" s="1">
-        <v>43709</v>
+        <v>43770</v>
       </c>
       <c r="B130" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C130">
-        <v>345200000</v>
+        <v>396200000</v>
       </c>
       <c r="D130">
-        <v>86580000</v>
+        <v>105280000</v>
       </c>
       <c r="E130">
-        <v>258620000</v>
+        <v>290920000</v>
       </c>
       <c r="F130">
-        <v>192540000</v>
+        <v>214340000</v>
       </c>
       <c r="G130">
-        <v>56770000</v>
+        <v>65640000</v>
       </c>
       <c r="H130">
-        <v>9300000</v>
+        <v>10940000</v>
       </c>
       <c r="I130">
-        <v>94110000</v>
+        <v>114980000</v>
       </c>
       <c r="J130">
-        <v>45400000</v>
+        <v>56510000</v>
       </c>
       <c r="K130">
-        <v>48710000</v>
+        <v>58470000</v>
       </c>
       <c r="L130">
-        <v>30170000</v>
+        <v>35110000</v>
       </c>
       <c r="M130">
-        <v>16370000</v>
+        <v>20690000</v>
       </c>
       <c r="N130">
-        <v>2180000</v>
+        <v>2670000</v>
       </c>
       <c r="O130">
-        <v>37920000</v>
+        <v>46880000</v>
       </c>
       <c r="P130">
-        <v>252130000</v>
+        <v>241640000</v>
       </c>
       <c r="Q130">
-        <v>838040000</v>
+        <v>856360000</v>
       </c>
       <c r="R130">
-        <v>1996010000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2011880000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
       <c r="A131" s="1">
-        <v>43739</v>
+        <v>43800</v>
       </c>
       <c r="B131" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C131">
-        <v>370580000</v>
+        <v>426450000</v>
       </c>
       <c r="D131">
-        <v>95420000</v>
+        <v>116490000</v>
       </c>
       <c r="E131">
-        <v>275160000</v>
+        <v>309950000</v>
       </c>
       <c r="F131">
-        <v>203600000</v>
+        <v>227540000</v>
       </c>
       <c r="G131">
-        <v>61410000</v>
+        <v>70660000</v>
       </c>
       <c r="H131">
-        <v>10150000</v>
+        <v>11750000</v>
       </c>
       <c r="I131">
-        <v>103870000</v>
+        <v>128940000</v>
       </c>
       <c r="J131">
-        <v>50440000</v>
+        <v>65020000</v>
       </c>
       <c r="K131">
-        <v>53440000</v>
+        <v>63920000</v>
       </c>
       <c r="L131">
-        <v>32650000</v>
+        <v>37430000</v>
       </c>
       <c r="M131">
-        <v>18380000</v>
+        <v>23510000</v>
       </c>
       <c r="N131">
-        <v>2400000</v>
+        <v>2980000</v>
       </c>
       <c r="O131">
-        <v>42100000</v>
+        <v>54910000</v>
       </c>
       <c r="P131">
-        <v>244580000</v>
+        <v>252270000</v>
       </c>
       <c r="Q131">
-        <v>845930000</v>
+        <v>243714032</v>
       </c>
       <c r="R131">
-        <v>1998760000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2056450000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
       <c r="A132" s="1">
-        <v>43770</v>
+        <v>43831</v>
       </c>
       <c r="B132" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C132">
-        <v>396200000</v>
+        <v>90806800</v>
       </c>
       <c r="D132">
-        <v>105280000</v>
+        <v>13359300</v>
       </c>
       <c r="E132">
-        <v>290920000</v>
+        <v>77447500</v>
       </c>
       <c r="F132">
-        <v>214340000</v>
+        <v>66866000</v>
       </c>
       <c r="G132">
-        <v>65640000</v>
+        <v>9414900</v>
       </c>
       <c r="H132">
-        <v>10940000</v>
+        <v>1166500</v>
       </c>
       <c r="I132">
-        <v>114980000</v>
+        <v>12656300</v>
       </c>
       <c r="J132">
-        <v>56510000</v>
+        <v>5427700</v>
       </c>
       <c r="K132">
-        <v>58470000</v>
+        <v>7228600</v>
       </c>
       <c r="L132">
-        <v>35110000</v>
+        <v>4739000</v>
       </c>
       <c r="M132">
-        <v>20690000</v>
+        <v>2208000</v>
       </c>
       <c r="N132">
-        <v>2670000</v>
+        <v>281600</v>
       </c>
       <c r="O132">
-        <v>46880000</v>
+        <v>4497600</v>
       </c>
       <c r="P132">
-        <v>241640000</v>
+        <v>262320800</v>
       </c>
       <c r="Q132">
-        <v>856360000</v>
+        <v>901912900</v>
       </c>
       <c r="R132">
-        <v>2011880000</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2110140000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
       <c r="A133" s="1">
-        <v>43800</v>
+        <v>43862</v>
       </c>
       <c r="B133" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C133">
-        <v>426450000</v>
+        <v>117677900</v>
       </c>
       <c r="D133">
-        <v>116490000</v>
+        <v>18460400</v>
       </c>
       <c r="E133">
-        <v>309950000</v>
+        <v>99217600</v>
       </c>
       <c r="F133">
-        <v>227540000</v>
+        <v>82037900</v>
       </c>
       <c r="G133">
-        <v>70660000</v>
+        <v>15423800</v>
       </c>
       <c r="H133">
-        <v>11750000</v>
+        <v>1755900</v>
       </c>
       <c r="I133">
-        <v>128940000</v>
+        <v>18919500</v>
       </c>
       <c r="J133">
-        <v>65020000</v>
+        <v>7689400</v>
       </c>
       <c r="K133">
-        <v>63920000</v>
+        <v>11230100</v>
       </c>
       <c r="L133">
-        <v>37430000</v>
+        <v>7586900</v>
       </c>
       <c r="M133">
-        <v>23510000</v>
+        <v>3264700</v>
       </c>
       <c r="N133">
-        <v>2980000</v>
+        <v>378500</v>
       </c>
       <c r="O133">
-        <v>54910000</v>
+        <v>8028100</v>
       </c>
       <c r="P133">
-        <v>252270000</v>
+        <v>265508400</v>
       </c>
       <c r="Q133">
-        <v>243714032</v>
+        <v>912172200</v>
       </c>
       <c r="R133">
-        <v>2056450000</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2129586100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
       <c r="A134" s="1">
-        <v>43831</v>
+        <v>43891</v>
       </c>
       <c r="B134" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C134">
-        <v>90806800</v>
+        <v>166953600</v>
       </c>
       <c r="D134">
-        <v>13359300</v>
+        <v>29617200</v>
       </c>
       <c r="E134">
-        <v>77447500</v>
+        <v>137336400</v>
       </c>
       <c r="F134">
-        <v>66866000</v>
+        <v>107979300</v>
       </c>
       <c r="G134">
-        <v>9414900</v>
+        <v>26407600</v>
       </c>
       <c r="H134">
-        <v>1166500</v>
+        <v>2949500</v>
       </c>
       <c r="I134">
-        <v>12656300</v>
+        <v>30312400</v>
       </c>
       <c r="J134">
-        <v>5427700</v>
+        <v>12610700</v>
       </c>
       <c r="K134">
-        <v>7228600</v>
+        <v>17701700</v>
       </c>
       <c r="L134">
-        <v>4739000</v>
+        <v>11645300</v>
       </c>
       <c r="M134">
-        <v>2208000</v>
+        <v>5412900</v>
       </c>
       <c r="N134">
-        <v>281600</v>
+        <v>643500</v>
       </c>
       <c r="O134">
-        <v>4497600</v>
+        <v>12455800</v>
       </c>
       <c r="P134">
-        <v>262320800</v>
+        <v>286213500</v>
       </c>
       <c r="Q134">
-        <v>901912900</v>
+        <v>916610200</v>
       </c>
       <c r="R134">
-        <v>2110140000</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2171927800</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
       <c r="A135" s="1">
-        <v>43862</v>
+        <v>43922</v>
       </c>
       <c r="B135" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C135">
-        <v>117677900</v>
+        <v>198864400</v>
       </c>
       <c r="D135">
-        <v>18460400</v>
+        <v>40162700</v>
       </c>
       <c r="E135">
-        <v>99217600</v>
+        <v>158701700</v>
       </c>
       <c r="F135">
-        <v>82037900</v>
+        <v>121827900</v>
       </c>
       <c r="G135">
-        <v>15423800</v>
+        <v>32931700</v>
       </c>
       <c r="H135">
-        <v>1755900</v>
+        <v>3942100</v>
       </c>
       <c r="I135">
-        <v>18919500</v>
+        <v>41092800</v>
       </c>
       <c r="J135">
-        <v>7689400</v>
+        <v>18324900</v>
       </c>
       <c r="K135">
-        <v>11230100</v>
+        <v>22767900</v>
       </c>
       <c r="L135">
-        <v>7586900</v>
+        <v>14309200</v>
       </c>
       <c r="M135">
-        <v>3264700</v>
+        <v>7547500</v>
       </c>
       <c r="N135">
-        <v>378500</v>
+        <v>911200</v>
       </c>
       <c r="O135">
-        <v>8028100</v>
+        <v>16740800</v>
       </c>
       <c r="P135">
-        <v>265508400</v>
+        <v>280359500</v>
       </c>
       <c r="Q135">
-        <v>912172200</v>
+        <v>937928300</v>
       </c>
       <c r="R135">
-        <v>2129586100</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2187309700</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
       <c r="A136" s="1">
-        <v>43891</v>
+        <v>43952</v>
       </c>
       <c r="B136" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C136">
-        <v>166953600</v>
+        <v>230638000</v>
       </c>
       <c r="D136">
-        <v>29617200</v>
+        <v>50129800</v>
       </c>
       <c r="E136">
-        <v>137336400</v>
+        <v>180508200</v>
       </c>
       <c r="F136">
-        <v>107979300</v>
+        <v>136346200</v>
       </c>
       <c r="G136">
-        <v>26407600</v>
+        <v>39268000</v>
       </c>
       <c r="H136">
-        <v>2949500</v>
+        <v>4894000</v>
       </c>
       <c r="I136">
-        <v>30312400</v>
+        <v>51485200</v>
       </c>
       <c r="J136">
-        <v>12610700</v>
+        <v>23891600</v>
       </c>
       <c r="K136">
-        <v>17701700</v>
+        <v>27593600</v>
       </c>
       <c r="L136">
-        <v>11645300</v>
+        <v>16966900</v>
       </c>
       <c r="M136">
-        <v>5412900</v>
+        <v>9440000</v>
       </c>
       <c r="N136">
-        <v>643500</v>
+        <v>1186700</v>
       </c>
       <c r="O136">
-        <v>12455800</v>
+        <v>21012600</v>
       </c>
       <c r="P136">
-        <v>286213500</v>
+        <v>278407600</v>
       </c>
       <c r="Q136">
-        <v>916610200</v>
+        <v>943046300</v>
       </c>
       <c r="R136">
-        <v>2171927800</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2198689100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
       <c r="A137" s="1">
-        <v>43922</v>
+        <v>43983</v>
       </c>
       <c r="B137" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C137">
-        <v>198864400</v>
+        <v>271862400</v>
       </c>
       <c r="D137">
-        <v>40162700</v>
+        <v>62074600</v>
       </c>
       <c r="E137">
-        <v>158701700</v>
+        <v>209787800</v>
       </c>
       <c r="F137">
-        <v>121827900</v>
+        <v>156189200</v>
       </c>
       <c r="G137">
-        <v>32931700</v>
+        <v>47596900</v>
       </c>
       <c r="H137">
-        <v>3942100</v>
+        <v>6001700</v>
       </c>
       <c r="I137">
-        <v>41092800</v>
+        <v>63081400</v>
       </c>
       <c r="J137">
-        <v>18324900</v>
+        <v>29838300</v>
       </c>
       <c r="K137">
-        <v>22767900</v>
+        <v>33243100</v>
       </c>
       <c r="L137">
-        <v>14309200</v>
+        <v>20240300</v>
       </c>
       <c r="M137">
-        <v>7547500</v>
+        <v>11550600</v>
       </c>
       <c r="N137">
-        <v>911200</v>
+        <v>1452200</v>
       </c>
       <c r="O137">
-        <v>16740800</v>
+        <v>25880400</v>
       </c>
       <c r="P137">
-        <v>280359500</v>
+        <v>281519300</v>
       </c>
       <c r="Q137">
-        <v>937928300</v>
+        <v>965274600</v>
       </c>
       <c r="R137">
-        <v>2187309700</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2197923400</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
       <c r="A138" s="1">
-        <v>43952</v>
+        <v>44013</v>
       </c>
       <c r="B138" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C138">
-        <v>230638000</v>
+        <v>300617700</v>
       </c>
       <c r="D138">
-        <v>50129800</v>
+        <v>71907900</v>
       </c>
       <c r="E138">
-        <v>180508200</v>
+        <v>228709800</v>
       </c>
       <c r="F138">
-        <v>136346200</v>
+        <v>168815400</v>
       </c>
       <c r="G138">
-        <v>39268000</v>
+        <v>53019900</v>
       </c>
       <c r="H138">
-        <v>4894000</v>
+        <v>6874500</v>
       </c>
       <c r="I138">
-        <v>51485200</v>
+        <v>74791900</v>
       </c>
       <c r="J138">
-        <v>23891600</v>
+        <v>36073200</v>
       </c>
       <c r="K138">
-        <v>27593600</v>
+        <v>38718700</v>
       </c>
       <c r="L138">
-        <v>16966900</v>
+        <v>22884300</v>
       </c>
       <c r="M138">
-        <v>9440000</v>
+        <v>14092800</v>
       </c>
       <c r="N138">
-        <v>1186700</v>
+        <v>1741600</v>
       </c>
       <c r="O138">
-        <v>21012600</v>
+        <v>30531500</v>
       </c>
       <c r="P138">
-        <v>278407600</v>
+        <v>270854600</v>
       </c>
       <c r="Q138">
-        <v>943046300</v>
+        <v>983131200</v>
       </c>
       <c r="R138">
-        <v>2198689100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2206152800</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
       <c r="A139" s="1">
-        <v>43983</v>
+        <v>44044</v>
       </c>
       <c r="B139" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C139">
-        <v>271862400</v>
+        <v>332465000</v>
       </c>
       <c r="D139">
-        <v>62074600</v>
+        <v>81832500</v>
       </c>
       <c r="E139">
-        <v>209787800</v>
+        <v>250632500</v>
       </c>
       <c r="F139">
-        <v>156189200</v>
+        <v>183907200</v>
       </c>
       <c r="G139">
-        <v>47596900</v>
+        <v>58967500</v>
       </c>
       <c r="H139">
-        <v>6001700</v>
+        <v>7757700</v>
       </c>
       <c r="I139">
-        <v>63081400</v>
+        <v>86589300</v>
       </c>
       <c r="J139">
-        <v>29838300</v>
+        <v>42237400</v>
       </c>
       <c r="K139">
-        <v>33243100</v>
+        <v>44351900</v>
       </c>
       <c r="L139">
-        <v>20240300</v>
+        <v>25714200</v>
       </c>
       <c r="M139">
-        <v>11550600</v>
+        <v>16631900</v>
       </c>
       <c r="N139">
-        <v>1452200</v>
+        <v>2005700</v>
       </c>
       <c r="O139">
-        <v>25880400</v>
+        <v>35595100</v>
       </c>
       <c r="P139">
-        <v>281519300</v>
+        <v>268194700</v>
       </c>
       <c r="Q139">
-        <v>965274600</v>
+        <v>1009644600</v>
       </c>
       <c r="R139">
-        <v>2197923400</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2233419000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
       <c r="A140" s="1">
-        <v>44013</v>
+        <v>44075</v>
       </c>
       <c r="B140" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C140">
-        <v>300617700</v>
+        <v>369903900</v>
       </c>
       <c r="D140">
-        <v>71907900</v>
+        <v>92220900</v>
       </c>
       <c r="E140">
-        <v>228709800</v>
+        <v>277683000</v>
       </c>
       <c r="F140">
-        <v>168815400</v>
+        <v>201868800</v>
       </c>
       <c r="G140">
-        <v>53019900</v>
+        <v>66658900</v>
       </c>
       <c r="H140">
-        <v>6874500</v>
+        <v>9155300</v>
       </c>
       <c r="I140">
-        <v>74791900</v>
+        <v>99894800</v>
       </c>
       <c r="J140">
-        <v>36073200</v>
+        <v>48871400</v>
       </c>
       <c r="K140">
-        <v>38718700</v>
+        <v>51023400</v>
       </c>
       <c r="L140">
-        <v>22884300</v>
+        <v>29141100</v>
       </c>
       <c r="M140">
-        <v>14092800</v>
+        <v>19576900</v>
       </c>
       <c r="N140">
-        <v>1741600</v>
+        <v>2305400</v>
       </c>
       <c r="O140">
-        <v>30531500</v>
+        <v>41151500</v>
       </c>
       <c r="P140">
-        <v>270854600</v>
+        <v>257962000</v>
       </c>
       <c r="Q140">
-        <v>983131200</v>
+        <v>1025276700</v>
       </c>
       <c r="R140">
-        <v>2206152800</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2243861900</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
       <c r="A141" s="1">
-        <v>44044</v>
+        <v>44105</v>
       </c>
       <c r="B141" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C141">
-        <v>332465000</v>
+        <v>396083200</v>
       </c>
       <c r="D141">
-        <v>81832500</v>
+        <v>100478600</v>
       </c>
       <c r="E141">
-        <v>250632500</v>
+        <v>295604600</v>
       </c>
       <c r="F141">
-        <v>183907200</v>
+        <v>213945700</v>
       </c>
       <c r="G141">
-        <v>58967500</v>
+        <v>71620800</v>
       </c>
       <c r="H141">
-        <v>7757700</v>
+        <v>10038000</v>
       </c>
       <c r="I141">
-        <v>86589300</v>
+        <v>110817800</v>
       </c>
       <c r="J141">
-        <v>42237400</v>
+        <v>54273600</v>
       </c>
       <c r="K141">
-        <v>44351900</v>
+        <v>56544200</v>
       </c>
       <c r="L141">
-        <v>25714200</v>
+        <v>31966000</v>
       </c>
       <c r="M141">
-        <v>16631900</v>
+        <v>22023900</v>
       </c>
       <c r="N141">
-        <v>2005700</v>
+        <v>2554300</v>
       </c>
       <c r="O141">
-        <v>35595100</v>
+        <v>45262900</v>
       </c>
       <c r="P141">
-        <v>268194700</v>
+        <v>254028000</v>
       </c>
       <c r="Q141">
-        <v>1009644600</v>
+        <v>1043757000</v>
       </c>
       <c r="R141">
-        <v>2233419000</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2257411600</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
       <c r="A142" s="1">
-        <v>44075</v>
+        <v>44136</v>
       </c>
       <c r="B142" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C142">
-        <v>369903900</v>
+        <v>421801200</v>
       </c>
       <c r="D142">
-        <v>92220900</v>
+        <v>109384300</v>
       </c>
       <c r="E142">
-        <v>277683000</v>
+        <v>312416900</v>
       </c>
       <c r="F142">
-        <v>201868800</v>
+        <v>225128200</v>
       </c>
       <c r="G142">
-        <v>66658900</v>
+        <v>76415200</v>
       </c>
       <c r="H142">
-        <v>9155300</v>
+        <v>10873500</v>
       </c>
       <c r="I142">
-        <v>99894800</v>
+        <v>123934300</v>
       </c>
       <c r="J142">
-        <v>48871400</v>
+        <v>61064800</v>
       </c>
       <c r="K142">
-        <v>51023400</v>
+        <v>62869500</v>
       </c>
       <c r="L142">
-        <v>29141100</v>
+        <v>34724400</v>
       </c>
       <c r="M142">
-        <v>19576900</v>
+        <v>25311700</v>
       </c>
       <c r="N142">
-        <v>2305400</v>
+        <v>2833500</v>
       </c>
       <c r="O142">
-        <v>41151500</v>
+        <v>49696900</v>
       </c>
       <c r="P142">
-        <v>257962000</v>
+        <v>259597400</v>
       </c>
       <c r="Q142">
-        <v>1025276700</v>
+        <v>1065648600</v>
       </c>
       <c r="R142">
-        <v>2243861900</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2292180600</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18">
       <c r="A143" s="1">
-        <v>44105</v>
+        <v>44166</v>
       </c>
       <c r="B143" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C143">
-        <v>396083200</v>
+        <v>452573400</v>
       </c>
       <c r="D143">
-        <v>100478600</v>
+        <v>119285800</v>
       </c>
       <c r="E143">
-        <v>295604600</v>
+        <v>333287600</v>
       </c>
       <c r="F143">
-        <v>213945700</v>
+        <v>239819300</v>
       </c>
       <c r="G143">
-        <v>71620800</v>
+        <v>81727100</v>
       </c>
       <c r="H143">
-        <v>10038000</v>
+        <v>11741100</v>
       </c>
       <c r="I143">
-        <v>110817800</v>
+        <v>139071000</v>
       </c>
       <c r="J143">
-        <v>54273600</v>
+        <v>69547900</v>
       </c>
       <c r="K143">
-        <v>56544200</v>
+        <v>69523100</v>
       </c>
       <c r="L143">
-        <v>31966000</v>
+        <v>37151100</v>
       </c>
       <c r="M143">
-        <v>22023900</v>
+        <v>29211600</v>
       </c>
       <c r="N143">
-        <v>2554300</v>
+        <v>3160400</v>
       </c>
       <c r="O143">
-        <v>45262900</v>
+        <v>57280500</v>
       </c>
       <c r="P143">
-        <v>254028000</v>
+        <v>259734500</v>
       </c>
       <c r="Q143">
-        <v>1043757000</v>
+        <v>1091502600</v>
       </c>
       <c r="R143">
-        <v>2257411600</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2329843000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18">
       <c r="A144" s="1">
-        <v>44136</v>
+        <v>44197</v>
       </c>
       <c r="B144" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C144">
-        <v>421801200</v>
+        <v>100936900</v>
       </c>
       <c r="D144">
-        <v>109384300</v>
+        <v>12778800</v>
       </c>
       <c r="E144">
-        <v>312416900</v>
+        <v>88158100</v>
       </c>
       <c r="F144">
-        <v>225128200</v>
+        <v>74811600</v>
       </c>
       <c r="G144">
-        <v>76415200</v>
+        <v>12060700</v>
       </c>
       <c r="H144">
-        <v>10873500</v>
+        <v>1285900</v>
       </c>
       <c r="I144">
-        <v>123934300</v>
+        <v>15377900</v>
       </c>
       <c r="J144">
-        <v>61064800</v>
+        <v>6352200</v>
       </c>
       <c r="K144">
-        <v>62869500</v>
+        <v>9025700</v>
       </c>
       <c r="L144">
-        <v>34724400</v>
+        <v>5033700</v>
       </c>
       <c r="M144">
-        <v>25311700</v>
+        <v>3678600</v>
       </c>
       <c r="N144">
-        <v>2833500</v>
+        <v>313400</v>
       </c>
       <c r="O144">
-        <v>49696900</v>
+        <v>4501200</v>
       </c>
       <c r="P144">
-        <v>259597400</v>
+        <v>259816900</v>
       </c>
       <c r="Q144">
-        <v>1065648600</v>
+        <v>1096778600</v>
       </c>
       <c r="R144">
-        <v>2292180600</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2386968400</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18">
       <c r="A145" s="1">
-        <v>44166</v>
+        <v>44228</v>
       </c>
       <c r="B145" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C145">
-        <v>452573400</v>
+        <v>132298800</v>
       </c>
       <c r="D145">
-        <v>119285800</v>
+        <v>18705100</v>
       </c>
       <c r="E145">
-        <v>333287600</v>
+        <v>113593600</v>
       </c>
       <c r="F145">
-        <v>239819300</v>
+        <v>92323000</v>
       </c>
       <c r="G145">
-        <v>81727100</v>
+        <v>19338500</v>
       </c>
       <c r="H145">
-        <v>11741100</v>
+        <v>1932200</v>
       </c>
       <c r="I145">
-        <v>139071000</v>
+        <v>26119700</v>
       </c>
       <c r="J145">
-        <v>69547900</v>
+        <v>10987100</v>
       </c>
       <c r="K145">
-        <v>69523100</v>
+        <v>15132600</v>
       </c>
       <c r="L145">
-        <v>37151100</v>
+        <v>8165900</v>
       </c>
       <c r="M145">
-        <v>29211600</v>
+        <v>6410300</v>
       </c>
       <c r="N145">
-        <v>3160400</v>
+        <v>556400</v>
       </c>
       <c r="O145">
-        <v>57280500</v>
+        <v>8136900</v>
       </c>
       <c r="P145">
-        <v>259734500</v>
+        <v>264614600</v>
       </c>
       <c r="Q145">
-        <v>1091502600</v>
+        <v>1094946400</v>
       </c>
       <c r="R145">
-        <v>2329843000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2392037200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18">
       <c r="A146" s="1">
-        <v>44197</v>
+        <v>44256</v>
       </c>
       <c r="B146" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C146">
-        <v>100936900</v>
+        <v>179951700</v>
       </c>
       <c r="D146">
-        <v>12778800</v>
+        <v>29692300</v>
       </c>
       <c r="E146">
-        <v>88158100</v>
+        <v>150259500</v>
       </c>
       <c r="F146">
-        <v>74811600</v>
+        <v>116356900</v>
       </c>
       <c r="G146">
-        <v>12060700</v>
+        <v>30659500</v>
       </c>
       <c r="H146">
-        <v>1285900</v>
+        <v>3243100</v>
       </c>
       <c r="I146">
-        <v>15377900</v>
+        <v>39513100</v>
       </c>
       <c r="J146">
-        <v>6352200</v>
+        <v>17024500</v>
       </c>
       <c r="K146">
-        <v>9025700</v>
+        <v>22488600</v>
       </c>
       <c r="L146">
-        <v>5033700</v>
+        <v>12041600</v>
       </c>
       <c r="M146">
-        <v>3678600</v>
+        <v>9576100</v>
       </c>
       <c r="N146">
-        <v>313400</v>
+        <v>870900</v>
       </c>
       <c r="O146">
-        <v>4501200</v>
+        <v>12408000</v>
       </c>
       <c r="P146">
-        <v>259816900</v>
+        <v>276148300</v>
       </c>
       <c r="Q146">
-        <v>1096778600</v>
+        <v>1111089200</v>
       </c>
       <c r="R146">
-        <v>2386968400</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2425841200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18">
       <c r="A147" s="1">
-        <v>44228</v>
+        <v>44287</v>
       </c>
       <c r="B147" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C147">
-        <v>132298800</v>
+        <v>211690300</v>
       </c>
       <c r="D147">
-        <v>18705100</v>
+        <v>39595900</v>
       </c>
       <c r="E147">
-        <v>113593600</v>
+        <v>172094400</v>
       </c>
       <c r="F147">
-        <v>92323000</v>
+        <v>130028200</v>
       </c>
       <c r="G147">
-        <v>19338500</v>
+        <v>37780100</v>
       </c>
       <c r="H147">
-        <v>1932200</v>
+        <v>4286100</v>
       </c>
       <c r="I147">
-        <v>26119700</v>
+        <v>51906100</v>
       </c>
       <c r="J147">
-        <v>10987100</v>
+        <v>22949600</v>
       </c>
       <c r="K147">
-        <v>15132600</v>
+        <v>28956500</v>
       </c>
       <c r="L147">
-        <v>8165900</v>
+        <v>14681600</v>
       </c>
       <c r="M147">
-        <v>6410300</v>
+        <v>13114200</v>
       </c>
       <c r="N147">
-        <v>556400</v>
+        <v>1160700</v>
       </c>
       <c r="O147">
-        <v>8136900</v>
+        <v>16295200</v>
       </c>
       <c r="P147">
-        <v>264614600</v>
+        <v>265938200</v>
       </c>
       <c r="Q147">
-        <v>1094946400</v>
+        <v>1127343100</v>
       </c>
       <c r="R147">
-        <v>2392037200</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2436192400</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18">
       <c r="A148" s="1">
-        <v>44256</v>
+        <v>44317</v>
       </c>
       <c r="B148" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C148">
-        <v>179951700</v>
+        <v>243335100</v>
       </c>
       <c r="D148">
-        <v>29692300</v>
+        <v>49036600</v>
       </c>
       <c r="E148">
-        <v>150259500</v>
+        <v>194298500</v>
       </c>
       <c r="F148">
-        <v>116356900</v>
+        <v>144763300</v>
       </c>
       <c r="G148">
-        <v>30659500</v>
+        <v>44265600</v>
       </c>
       <c r="H148">
-        <v>3243100</v>
+        <v>5269600</v>
       </c>
       <c r="I148">
-        <v>39513100</v>
+        <v>63602200</v>
       </c>
       <c r="J148">
-        <v>17024500</v>
+        <v>28495700</v>
       </c>
       <c r="K148">
-        <v>22488600</v>
+        <v>35106500</v>
       </c>
       <c r="L148">
-        <v>12041600</v>
+        <v>17231500</v>
       </c>
       <c r="M148">
-        <v>9576100</v>
+        <v>16444200</v>
       </c>
       <c r="N148">
-        <v>870900</v>
+        <v>1430800</v>
       </c>
       <c r="O148">
-        <v>12408000</v>
+        <v>20305800</v>
       </c>
       <c r="P148">
-        <v>276148300</v>
+        <v>264985400</v>
       </c>
       <c r="Q148">
-        <v>1111089200</v>
+        <v>1143010600</v>
       </c>
       <c r="R148">
-        <v>2425841200</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2459618500</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18">
       <c r="A149" s="1">
-        <v>44287</v>
+        <v>44348</v>
       </c>
       <c r="B149" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C149">
-        <v>211690300</v>
+        <v>270988900</v>
       </c>
       <c r="D149">
-        <v>39595900</v>
+        <v>60287000</v>
       </c>
       <c r="E149">
-        <v>172094400</v>
+        <v>210702000</v>
       </c>
       <c r="F149">
-        <v>130028200</v>
+        <v>153009300</v>
       </c>
       <c r="G149">
-        <v>37780100</v>
+        <v>51360400</v>
       </c>
       <c r="H149">
-        <v>4286100</v>
+        <v>6332200</v>
       </c>
       <c r="I149">
-        <v>51906100</v>
+        <v>75311400</v>
       </c>
       <c r="J149">
-        <v>22949600</v>
+        <v>34092100</v>
       </c>
       <c r="K149">
-        <v>28956500</v>
+        <v>41219300</v>
       </c>
       <c r="L149">
-        <v>14681600</v>
+        <v>19803500</v>
       </c>
       <c r="M149">
-        <v>13114200</v>
+        <v>19728700</v>
       </c>
       <c r="N149">
-        <v>1160700</v>
+        <v>1687200</v>
       </c>
       <c r="O149">
-        <v>16295200</v>
+        <v>24463900</v>
       </c>
       <c r="P149">
-        <v>265938200</v>
+        <v>267062000</v>
       </c>
       <c r="Q149">
-        <v>1127343100</v>
+        <v>1118585200</v>
       </c>
       <c r="R149">
-        <v>2436192400</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2399154300</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18">
       <c r="A150" s="1">
-        <v>44317</v>
+        <v>44378</v>
       </c>
       <c r="B150" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C150">
-        <v>243335100</v>
+        <v>299644200</v>
       </c>
       <c r="D150">
-        <v>49036600</v>
+        <v>69221000</v>
       </c>
       <c r="E150">
-        <v>194298500</v>
+        <v>230423100</v>
       </c>
       <c r="F150">
-        <v>144763300</v>
+        <v>166009800</v>
       </c>
       <c r="G150">
-        <v>44265600</v>
+        <v>57173000</v>
       </c>
       <c r="H150">
-        <v>5269600</v>
+        <v>7240300</v>
       </c>
       <c r="I150">
-        <v>63602200</v>
+        <v>88764200</v>
       </c>
       <c r="J150">
-        <v>28495700</v>
+        <v>40419300</v>
       </c>
       <c r="K150">
-        <v>35106500</v>
+        <v>48344900</v>
       </c>
       <c r="L150">
-        <v>17231500</v>
+        <v>22335500</v>
       </c>
       <c r="M150">
-        <v>16444200</v>
+        <v>24011400</v>
       </c>
       <c r="N150">
-        <v>1430800</v>
+        <v>1998100</v>
       </c>
       <c r="O150">
-        <v>20305800</v>
+        <v>28524400</v>
       </c>
       <c r="P150">
-        <v>264985400</v>
+        <v>258712300</v>
       </c>
       <c r="Q150">
-        <v>1143010600</v>
+        <v>1120272900</v>
       </c>
       <c r="R150">
-        <v>2459618500</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2393414800</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18">
       <c r="A151" s="1">
-        <v>44348</v>
+        <v>44409</v>
       </c>
       <c r="B151" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C151">
-        <v>270988900</v>
+        <v>330244900</v>
       </c>
       <c r="D151">
-        <v>60287000</v>
+        <v>78060700</v>
       </c>
       <c r="E151">
-        <v>210702000</v>
+        <v>252184200</v>
       </c>
       <c r="F151">
-        <v>153009300</v>
+        <v>181028000</v>
       </c>
       <c r="G151">
-        <v>51360400</v>
+        <v>63025700</v>
       </c>
       <c r="H151">
-        <v>6332200</v>
+        <v>8130500</v>
       </c>
       <c r="I151">
-        <v>75311400</v>
+        <v>102582300</v>
       </c>
       <c r="J151">
-        <v>34092100</v>
+        <v>47360000</v>
       </c>
       <c r="K151">
-        <v>41219300</v>
+        <v>55222300</v>
       </c>
       <c r="L151">
-        <v>19803500</v>
+        <v>25137000</v>
       </c>
       <c r="M151">
-        <v>19728700</v>
+        <v>27798300</v>
       </c>
       <c r="N151">
-        <v>1687200</v>
+        <v>2287100</v>
       </c>
       <c r="O151">
-        <v>24463900</v>
+        <v>32676400</v>
       </c>
       <c r="P151">
-        <v>267062000</v>
+        <v>262462300</v>
       </c>
       <c r="Q151">
-        <v>1118585200</v>
+        <v>1136144400</v>
       </c>
       <c r="R151">
-        <v>2399154300</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2413485300</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18">
       <c r="A152" s="1">
-        <v>44378</v>
+        <v>44440</v>
       </c>
       <c r="B152" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C152">
-        <v>299644200</v>
+        <v>365142900</v>
       </c>
       <c r="D152">
-        <v>69221000</v>
+        <v>87817000</v>
       </c>
       <c r="E152">
-        <v>230423100</v>
+        <v>277326000</v>
       </c>
       <c r="F152">
-        <v>166009800</v>
+        <v>197912500</v>
       </c>
       <c r="G152">
-        <v>57173000</v>
+        <v>69859600</v>
       </c>
       <c r="H152">
-        <v>7240300</v>
+        <v>9553900</v>
       </c>
       <c r="I152">
-        <v>88764200</v>
+        <v>115920900</v>
       </c>
       <c r="J152">
-        <v>40419300</v>
+        <v>54013600</v>
       </c>
       <c r="K152">
-        <v>48344900</v>
+        <v>61907300</v>
       </c>
       <c r="L152">
-        <v>22335500</v>
+        <v>28142500</v>
       </c>
       <c r="M152">
-        <v>24011400</v>
+        <v>31155800</v>
       </c>
       <c r="N152">
-        <v>1998100</v>
+        <v>2609000</v>
       </c>
       <c r="O152">
-        <v>28524400</v>
+        <v>36800500</v>
       </c>
       <c r="P152">
-        <v>258712300</v>
+        <v>260954700</v>
       </c>
       <c r="Q152">
-        <v>1120272900</v>
+        <v>1150990300</v>
       </c>
       <c r="R152">
-        <v>2393414800</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2431964300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18">
       <c r="A153" s="1">
-        <v>44409</v>
+        <v>44470</v>
       </c>
       <c r="B153" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C153">
-        <v>330244900</v>
+        <v>390532500</v>
       </c>
       <c r="D153">
-        <v>78060700</v>
+        <v>96321100</v>
       </c>
       <c r="E153">
-        <v>252184200</v>
+        <v>294211400</v>
       </c>
       <c r="F153">
-        <v>181028000</v>
+        <v>209436400</v>
       </c>
       <c r="G153">
-        <v>63025700</v>
+        <v>74356400</v>
       </c>
       <c r="H153">
-        <v>8130500</v>
+        <v>10418600</v>
       </c>
       <c r="I153">
-        <v>102582300</v>
+        <v>126909500</v>
       </c>
       <c r="J153">
-        <v>47360000</v>
+        <v>59763400</v>
       </c>
       <c r="K153">
-        <v>55222300</v>
+        <v>67146100</v>
       </c>
       <c r="L153">
-        <v>25137000</v>
+        <v>30789400</v>
       </c>
       <c r="M153">
-        <v>27798300</v>
+        <v>33514200</v>
       </c>
       <c r="N153">
-        <v>2287100</v>
+        <v>2842500</v>
       </c>
       <c r="O153">
-        <v>32676400</v>
+        <v>40707700</v>
       </c>
       <c r="P153">
-        <v>262462300</v>
+        <v>258869900</v>
       </c>
       <c r="Q153">
-        <v>1136144400</v>
+        <v>1160402700</v>
       </c>
       <c r="R153">
-        <v>2413485300</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2444195500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18">
       <c r="A154" s="1">
-        <v>44440</v>
+        <v>44501</v>
       </c>
       <c r="B154" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C154">
-        <v>365142900</v>
+        <v>416440000</v>
       </c>
       <c r="D154">
-        <v>87817000</v>
+        <v>105750000</v>
       </c>
       <c r="E154">
-        <v>277326000</v>
+        <v>310690000</v>
       </c>
       <c r="F154">
-        <v>197912500</v>
+        <v>220500000</v>
       </c>
       <c r="G154">
-        <v>69859600</v>
+        <v>78960000</v>
       </c>
       <c r="H154">
-        <v>9553900</v>
+        <v>11230000</v>
       </c>
       <c r="I154">
-        <v>115920900</v>
+        <v>140570000</v>
       </c>
       <c r="J154">
-        <v>54013600</v>
+        <v>67610000</v>
       </c>
       <c r="K154">
-        <v>61907300</v>
+        <v>72960000</v>
       </c>
       <c r="L154">
-        <v>28142500</v>
+        <v>33210000</v>
       </c>
       <c r="M154">
-        <v>31155800</v>
+        <v>36600000</v>
       </c>
       <c r="N154">
-        <v>2609000</v>
+        <v>3160000</v>
       </c>
       <c r="O154">
-        <v>36800500</v>
+        <v>45140000</v>
       </c>
       <c r="P154">
-        <v>260954700</v>
+        <v>254070000</v>
       </c>
       <c r="Q154">
-        <v>1150990300</v>
+        <v>1176730000</v>
       </c>
       <c r="R154">
-        <v>2431964300</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
-        <v>44470</v>
-      </c>
-      <c r="B155" t="s">
-        <v>170</v>
-      </c>
-      <c r="C155">
-        <v>390532500</v>
-      </c>
-      <c r="D155">
-        <v>96321100</v>
-      </c>
-      <c r="E155">
-        <v>294211400</v>
-      </c>
-      <c r="F155">
-        <v>209436400</v>
-      </c>
-      <c r="G155">
-        <v>74356400</v>
-      </c>
-      <c r="H155">
-        <v>10418600</v>
-      </c>
-      <c r="I155">
-        <v>126909500</v>
-      </c>
-      <c r="J155">
-        <v>59763400</v>
-      </c>
-      <c r="K155">
-        <v>67146100</v>
-      </c>
-      <c r="L155">
-        <v>30789400</v>
-      </c>
-      <c r="M155">
-        <v>33514200</v>
-      </c>
-      <c r="N155">
-        <v>2842500</v>
-      </c>
-      <c r="O155">
-        <v>40707700</v>
-      </c>
-      <c r="P155">
-        <v>258869900</v>
-      </c>
-      <c r="Q155">
-        <v>1160402700</v>
-      </c>
-      <c r="R155">
-        <v>2444195500</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
-        <v>44501</v>
-      </c>
-      <c r="B156" t="s">
+        <v>2461890000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18">
+      <c r="A155" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18">
+      <c r="A156" t="s">
         <v>171</v>
       </c>
-      <c r="C156">
-        <v>416440000</v>
-      </c>
-      <c r="D156">
-        <v>105750000</v>
-      </c>
-      <c r="E156">
-        <v>310690000</v>
-      </c>
-      <c r="F156">
-        <v>220500000</v>
-      </c>
-      <c r="G156">
-        <v>78960000</v>
-      </c>
-      <c r="H156">
-        <v>11230000</v>
-      </c>
-      <c r="I156">
-        <v>140570000</v>
-      </c>
-      <c r="J156">
-        <v>67610000</v>
-      </c>
-      <c r="K156">
-        <v>72960000</v>
-      </c>
-      <c r="L156">
-        <v>33210000</v>
-      </c>
-      <c r="M156">
-        <v>36600000</v>
-      </c>
-      <c r="N156">
-        <v>3160000</v>
-      </c>
-      <c r="O156">
-        <v>45140000</v>
-      </c>
-      <c r="P156">
-        <v>254070000</v>
-      </c>
-      <c r="Q156">
-        <v>1176730000</v>
-      </c>
-      <c r="R156">
-        <v>2461890000</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:18">
       <c r="A157" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18">
       <c r="A158" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18">
       <c r="A159" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18">
       <c r="A160" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
       <c r="A169" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1">
       <c r="A171" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/09-21_total.xlsx
+++ b/data/09-21_total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data_science\Insurance_report\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E47EA7D-5AC0-4E0C-BD8C-CD26E563B369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323E7AE7-8F64-48F1-A95D-26D1C8AA2A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3610" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="09-21全国" sheetId="1" r:id="rId1"/>
@@ -641,7 +641,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,6 +802,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1227,11 +1237,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1591,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1600,6 +1616,17 @@
     <col min="1" max="1" width="52.90625" customWidth="1"/>
     <col min="2" max="2" width="28.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1714,60 +1741,60 @@
         <v>338154395.5</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" ht="15.5">
       <c r="A3" s="1">
         <v>39845</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="C3">
-        <v>32767025.600000001</v>
-      </c>
-      <c r="D3">
-        <v>7185819.9000000004</v>
-      </c>
-      <c r="E3">
-        <v>25581205.699999999</v>
-      </c>
-      <c r="F3">
-        <v>23589945.899999999</v>
-      </c>
-      <c r="G3">
-        <v>1403958.6</v>
-      </c>
-      <c r="H3">
-        <v>587301.1</v>
-      </c>
-      <c r="I3">
-        <v>8235800.2000000002</v>
-      </c>
-      <c r="J3">
-        <v>3514472.2</v>
-      </c>
-      <c r="K3">
-        <v>4721328.0999999996</v>
-      </c>
-      <c r="L3">
-        <v>4029203.3</v>
-      </c>
-      <c r="M3">
-        <v>540848.1</v>
-      </c>
-      <c r="N3">
-        <v>151276.70000000001</v>
-      </c>
-      <c r="O3">
-        <v>2617023.4</v>
-      </c>
-      <c r="P3">
-        <v>100047101.3</v>
-      </c>
-      <c r="Q3">
-        <v>221784969.59999999</v>
-      </c>
-      <c r="R3">
-        <v>354347298</v>
+      <c r="C3" s="3">
+        <v>21231670.59</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4649354.71</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16582315.880000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>15443030.83</v>
+      </c>
+      <c r="G3" s="2">
+        <v>815765.34</v>
+      </c>
+      <c r="H3" s="2">
+        <v>323519.71000000002</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5285888.72</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2271490.0699999998</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3014398.65</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2577771.21</v>
+      </c>
+      <c r="M3" s="2">
+        <v>338816.87</v>
+      </c>
+      <c r="N3" s="2">
+        <v>97810.58</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1678057.01</v>
+      </c>
+      <c r="P3" s="2">
+        <v>88846207.769999996</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>220627736.03999999</v>
+      </c>
+      <c r="R3" s="2">
+        <v>342091505.5</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -10399,5 +10426,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>